--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.3.2 20170228\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.3.2 20170228/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="-9600" yWindow="-21160" windowWidth="38400" windowHeight="21160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -30,11 +30,16 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="252">
   <si>
     <t>No</t>
   </si>
@@ -302,7 +307,6 @@
         <sz val="11"/>
         <color theme="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>102</t>
@@ -416,7 +420,7 @@
   </si>
   <si>
     <t>房东PC  房东APP  papp</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>吕崇新</t>
@@ -426,7 +430,7 @@
   </si>
   <si>
     <t>王云飞</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DV-2650</t>
@@ -436,14 +440,14 @@
   </si>
   <si>
     <t>bs、payapi</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>茅寰寰</t>
   </si>
   <si>
     <t>纪维玉</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DV-2715</t>
@@ -453,7 +457,7 @@
   </si>
   <si>
     <t>renterembed</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>田志敏</t>
@@ -463,7 +467,7 @@
   </si>
   <si>
     <t>纪维玉</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>JRYF-405</t>
@@ -473,7 +477,7 @@
   </si>
   <si>
     <t>bs、tasktracker</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>韩美娟</t>
@@ -489,15 +493,15 @@
   </si>
   <si>
     <t>优化支付宝服务窗的立即支付功能</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>renterembed-fe</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>王龙国</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>JRYF-420</t>
@@ -513,25 +517,25 @@
     <rPh sb="6" eb="7">
       <t>chuan'zhao'p</t>
     </rPh>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>partnerPC</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
     <rPh sb="0" eb="1">
       <t>shi</t>
     </rPh>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>重楼</t>
     <rPh sb="0" eb="1">
       <t>chong'l</t>
     </rPh>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>马丁组</t>
@@ -541,18 +545,18 @@
   </si>
   <si>
     <t>为登录日志增加统计渠道维度</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>partnerPC，partnerApp，papp，renter，renterPC</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>船长</t>
     <rPh sb="0" eb="1">
       <t>chuan'z</t>
     </rPh>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DV-2112</t>
@@ -562,14 +566,14 @@
   </si>
   <si>
     <t>partnerPC，fangtai</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>书生</t>
     <rPh sb="0" eb="1">
       <t>shu'sheng</t>
     </rPh>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t> DV-2294</t>
@@ -579,7 +583,7 @@
   </si>
   <si>
     <t>partnerPC</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t> DV-2296</t>
@@ -607,41 +611,41 @@
   </si>
   <si>
     <t>新移动版录入房源，编辑页面应读取冗余金额字段。</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DV-2507</t>
   </si>
   <si>
     <t>分散式/集中式切换按钮位置向后移动</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DV-2508</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>BS未官网展示的房源，需查看官网详情按钮提示</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>BS</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DV-2510</t>
   </si>
   <si>
     <t>编辑页面，页面title更换</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DV-2519</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>集中式录入第三步，顶部当前模板内容不明显，需加入面积。</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DV-2521</t>
@@ -654,18 +658,18 @@
     <rPh sb="15" eb="16">
       <t>you'h</t>
     </rPh>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>BS</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>游侠</t>
     <rPh sb="0" eb="1">
       <t>you'xia</t>
     </rPh>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>TOPT-779</t>
@@ -690,15 +694,15 @@
     <rPh sb="9" eb="10">
       <t>you'hua</t>
     </rPh>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>partnerPC,partnerApp</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>SLOW-236</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>房态图右侧搜索下拉</t>
@@ -714,21 +718,21 @@
     <rPh sb="7" eb="8">
       <t>xia'la</t>
     </rPh>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Fix Bugs</t>
   </si>
   <si>
     <t>fangtai</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>思聪</t>
     <rPh sb="0" eb="1">
       <t>si'cong</t>
     </rPh>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>房态图装修操作页面刷新</t>
@@ -747,7 +751,7 @@
     <rPh sb="9" eb="10">
       <t>shua'xin</t>
     </rPh>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>58字段对应关系</t>
@@ -760,33 +764,33 @@
     <rPh sb="6" eb="7">
       <t>guan'xi</t>
     </rPh>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>定时器</t>
     <rPh sb="0" eb="1">
       <t>ding'shi'qi</t>
     </rPh>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DV-2495</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>房东入驻页面搜索引擎优化</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>renterPC</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DV-2727</t>
   </si>
   <si>
     <t>PC首页-昨日实收/今日实收/待办事项-补录文案调整</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DV-2655</t>
@@ -934,13 +938,39 @@
   </si>
   <si>
     <t>DV-2216</t>
+  </si>
+  <si>
+    <t>5.3.2</t>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>sysconfig.weixin.weixinhuoBanAppID=wx955293f7c6e69520
+sysconfig.weixin.weixinhuoBanAppSecret=b763ae291f08d6dbfdbaa3e4fe9ba367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蘑菇伙伴微信公众号
+</t>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>田东兴</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="33">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1078,14 +1108,6 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1495,7 +1517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1709,6 +1731,237 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="6" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="6" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="6" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="6" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1736,235 +1989,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="6" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="6" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="6" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="6" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1982,7 +2010,7 @@
     <cellStyle name="常规 9" xfId="4"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="着色 4" xfId="5" builtinId="41"/>
+    <cellStyle name="个性色4" xfId="5" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1996,7 +2024,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2343,36 +2371,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="42.625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="47" customWidth="1"/>
-    <col min="6" max="6" width="29.25" style="47" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="47" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="47" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="47" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" style="47" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="47" customWidth="1"/>
     <col min="8" max="8" width="10" style="48" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="47" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="47" customWidth="1"/>
     <col min="10" max="10" width="10" style="48" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="48" customWidth="1"/>
-    <col min="12" max="14" width="11.875" style="47" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="47" customWidth="1"/>
-    <col min="16" max="16" width="9.75" style="48" customWidth="1"/>
-    <col min="17" max="17" width="14.125" style="48" customWidth="1"/>
-    <col min="18" max="18" width="9.75" style="48" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" style="48" customWidth="1"/>
+    <col min="12" max="14" width="11.83203125" style="47" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="47" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" style="48" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" style="48" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="48" customWidth="1"/>
     <col min="19" max="20" width="12" style="49" customWidth="1"/>
     <col min="21" max="21" width="17" style="49" customWidth="1"/>
-    <col min="22" max="22" width="14.125" style="49" customWidth="1"/>
-    <col min="23" max="23" width="41.875" style="48" customWidth="1"/>
-    <col min="24" max="24" width="8.875" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" style="49" customWidth="1"/>
+    <col min="23" max="23" width="41.83203125" style="48" customWidth="1"/>
+    <col min="24" max="24" width="8.83203125" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1">
+    <row r="1" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -2443,2267 +2471,2267 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="89" customFormat="1" ht="16.5">
-      <c r="A2" s="80">
+    <row r="2" spans="1:24" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" s="71">
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="83">
+      <c r="H2" s="74">
         <v>42747</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="83">
+      <c r="J2" s="74">
         <v>42747</v>
       </c>
-      <c r="K2" s="82"/>
-      <c r="L2" s="84" t="s">
+      <c r="K2" s="73"/>
+      <c r="L2" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="82" t="s">
+      <c r="M2" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="82" t="s">
+      <c r="N2" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="82" t="s">
+      <c r="O2" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="84" t="s">
+      <c r="P2" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" s="83">
+      <c r="Q2" s="74">
         <v>42802</v>
       </c>
-      <c r="R2" s="84" t="s">
+      <c r="R2" s="75" t="s">
         <v>79</v>
       </c>
       <c r="S2" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="T2" s="85"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="88"/>
-    </row>
-    <row r="3" spans="1:24" s="89" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="80">
+      <c r="T2" s="76"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="79"/>
+    </row>
+    <row r="3" spans="1:24" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="71">
         <v>2</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="83">
+      <c r="H3" s="74">
         <v>42757</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="83">
+      <c r="J3" s="74">
         <v>42757</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="84" t="s">
+      <c r="K3" s="73"/>
+      <c r="L3" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="M3" s="82" t="s">
+      <c r="M3" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="82" t="s">
+      <c r="N3" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="82" t="s">
+      <c r="O3" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="84" t="s">
+      <c r="P3" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="83">
+      <c r="Q3" s="74">
         <v>42802</v>
       </c>
-      <c r="R3" s="84" t="s">
+      <c r="R3" s="75" t="s">
         <v>79</v>
       </c>
       <c r="S3" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="88"/>
-    </row>
-    <row r="4" spans="1:24" s="89" customFormat="1" ht="16.5">
-      <c r="A4" s="80">
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="79"/>
+    </row>
+    <row r="4" spans="1:24" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A4" s="71">
         <v>3</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="83">
+      <c r="H4" s="74">
         <v>42786</v>
       </c>
-      <c r="I4" s="82" t="s">
+      <c r="I4" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="83">
+      <c r="J4" s="74">
         <v>42786</v>
       </c>
-      <c r="K4" s="82"/>
-      <c r="L4" s="84" t="s">
+      <c r="K4" s="73"/>
+      <c r="L4" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="82" t="s">
+      <c r="M4" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" s="83">
+      <c r="Q4" s="74">
         <v>42802</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="75" t="s">
         <v>79</v>
       </c>
       <c r="S4" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="88"/>
-    </row>
-    <row r="5" spans="1:24" s="89" customFormat="1" ht="16.5">
-      <c r="A5" s="80">
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="79"/>
+    </row>
+    <row r="5" spans="1:24" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A5" s="71">
         <v>4</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="83">
+      <c r="H5" s="74">
         <v>42790</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="83">
+      <c r="J5" s="74">
         <v>42790</v>
       </c>
-      <c r="K5" s="82"/>
-      <c r="L5" s="84" t="s">
+      <c r="K5" s="73"/>
+      <c r="L5" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="82" t="s">
+      <c r="M5" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="N5" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="82" t="s">
+      <c r="O5" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="P5" s="84" t="s">
+      <c r="P5" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" s="83">
+      <c r="Q5" s="74">
         <v>42802</v>
       </c>
-      <c r="R5" s="84" t="s">
+      <c r="R5" s="75" t="s">
         <v>79</v>
       </c>
       <c r="S5" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="88"/>
-    </row>
-    <row r="6" spans="1:24" s="89" customFormat="1" ht="16.5">
-      <c r="A6" s="80">
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="79"/>
+    </row>
+    <row r="6" spans="1:24" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A6" s="71">
         <v>5</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="83">
+      <c r="H6" s="74">
         <v>42790</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="83">
+      <c r="J6" s="74">
         <v>42790</v>
       </c>
-      <c r="K6" s="82"/>
-      <c r="L6" s="84" t="s">
+      <c r="K6" s="73"/>
+      <c r="L6" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="M6" s="82" t="s">
+      <c r="M6" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="82" t="s">
+      <c r="N6" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="O6" s="82" t="s">
+      <c r="O6" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="P6" s="84" t="s">
+      <c r="P6" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" s="83">
+      <c r="Q6" s="74">
         <v>42802</v>
       </c>
-      <c r="R6" s="84" t="s">
+      <c r="R6" s="75" t="s">
         <v>79</v>
       </c>
       <c r="S6" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="88"/>
-    </row>
-    <row r="7" spans="1:24" s="89" customFormat="1" ht="16.5">
-      <c r="A7" s="80">
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="79"/>
+    </row>
+    <row r="7" spans="1:24" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A7" s="71">
         <v>6</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="F7" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="83">
+      <c r="H7" s="74">
         <v>42790</v>
       </c>
-      <c r="I7" s="82" t="s">
+      <c r="I7" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="83">
+      <c r="J7" s="74">
         <v>42790</v>
       </c>
-      <c r="K7" s="82"/>
-      <c r="L7" s="84" t="s">
+      <c r="K7" s="73"/>
+      <c r="L7" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="82" t="s">
+      <c r="M7" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="82" t="s">
+      <c r="N7" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="O7" s="82" t="s">
+      <c r="O7" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="P7" s="84" t="s">
+      <c r="P7" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="83">
+      <c r="Q7" s="74">
         <v>42802</v>
       </c>
-      <c r="R7" s="84" t="s">
+      <c r="R7" s="75" t="s">
         <v>79</v>
       </c>
       <c r="S7" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="88"/>
-    </row>
-    <row r="8" spans="1:24" s="89" customFormat="1" ht="49.5">
-      <c r="A8" s="80">
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="79"/>
+    </row>
+    <row r="8" spans="1:24" s="80" customFormat="1" ht="64" x14ac:dyDescent="0.15">
+      <c r="A8" s="71">
         <v>7</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="83">
+      <c r="H8" s="74">
         <v>42790</v>
       </c>
-      <c r="I8" s="82" t="s">
+      <c r="I8" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="83">
+      <c r="J8" s="74">
         <v>42790</v>
       </c>
-      <c r="K8" s="82"/>
-      <c r="L8" s="84" t="s">
+      <c r="K8" s="73"/>
+      <c r="L8" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="M8" s="82" t="s">
+      <c r="M8" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="82" t="s">
+      <c r="N8" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="82" t="s">
+      <c r="O8" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="P8" s="84" t="s">
+      <c r="P8" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="83">
+      <c r="Q8" s="74">
         <v>42802</v>
       </c>
-      <c r="R8" s="84" t="s">
+      <c r="R8" s="75" t="s">
         <v>79</v>
       </c>
       <c r="S8" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="88"/>
-    </row>
-    <row r="9" spans="1:24" s="89" customFormat="1" ht="33">
-      <c r="A9" s="80">
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="79"/>
+    </row>
+    <row r="9" spans="1:24" s="80" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A9" s="71">
         <v>8</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="F9" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="82" t="s">
+      <c r="G9" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="74">
         <v>42791</v>
       </c>
-      <c r="I9" s="82" t="s">
+      <c r="I9" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="83">
+      <c r="J9" s="74">
         <v>42791</v>
       </c>
-      <c r="K9" s="82"/>
-      <c r="L9" s="84" t="s">
+      <c r="K9" s="73"/>
+      <c r="L9" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="M9" s="82" t="s">
+      <c r="M9" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="82" t="s">
+      <c r="N9" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="O9" s="82" t="s">
+      <c r="O9" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="P9" s="84" t="s">
+      <c r="P9" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="Q9" s="83">
+      <c r="Q9" s="74">
         <v>42802</v>
       </c>
-      <c r="R9" s="84" t="s">
+      <c r="R9" s="75" t="s">
         <v>79</v>
       </c>
       <c r="S9" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="88"/>
-    </row>
-    <row r="10" spans="1:24" s="89" customFormat="1" ht="33">
-      <c r="A10" s="80">
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="79"/>
+    </row>
+    <row r="10" spans="1:24" s="80" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A10" s="71">
         <v>9</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="82" t="s">
+      <c r="F10" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="82" t="s">
+      <c r="G10" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="83">
+      <c r="H10" s="74">
         <v>42792</v>
       </c>
-      <c r="I10" s="82" t="s">
+      <c r="I10" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="83">
+      <c r="J10" s="74">
         <v>42792</v>
       </c>
-      <c r="K10" s="82"/>
-      <c r="L10" s="84" t="s">
+      <c r="K10" s="73"/>
+      <c r="L10" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="M10" s="82" t="s">
+      <c r="M10" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="82" t="s">
+      <c r="N10" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="92" t="s">
+      <c r="O10" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="P10" s="84" t="s">
+      <c r="P10" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="Q10" s="83">
+      <c r="Q10" s="74">
         <v>42802</v>
       </c>
-      <c r="R10" s="84" t="s">
+      <c r="R10" s="75" t="s">
         <v>79</v>
       </c>
       <c r="S10" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="88"/>
-    </row>
-    <row r="11" spans="1:24" s="89" customFormat="1" ht="16.5">
-      <c r="A11" s="80">
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="79"/>
+    </row>
+    <row r="11" spans="1:24" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="71">
         <v>10</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="82" t="s">
+      <c r="G11" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H11" s="74">
         <v>42794</v>
       </c>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="83">
+      <c r="J11" s="74">
         <v>42794</v>
       </c>
-      <c r="K11" s="82"/>
-      <c r="L11" s="84" t="s">
+      <c r="K11" s="73"/>
+      <c r="L11" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="82" t="s">
+      <c r="M11" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="82" t="s">
+      <c r="N11" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="82" t="s">
+      <c r="O11" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="84" t="s">
+      <c r="P11" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="Q11" s="83">
+      <c r="Q11" s="74">
         <v>42802</v>
       </c>
-      <c r="R11" s="84" t="s">
+      <c r="R11" s="75" t="s">
         <v>79</v>
       </c>
       <c r="S11" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="88"/>
-    </row>
-    <row r="12" spans="1:24" s="89" customFormat="1" ht="16.5">
-      <c r="A12" s="80">
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="79"/>
+    </row>
+    <row r="12" spans="1:24" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A12" s="71">
         <v>11</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="82" t="s">
+      <c r="F12" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="82" t="s">
+      <c r="G12" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="83">
+      <c r="H12" s="74">
         <v>42796</v>
       </c>
-      <c r="I12" s="82" t="s">
+      <c r="I12" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="83">
+      <c r="J12" s="74">
         <v>42796</v>
       </c>
-      <c r="K12" s="82"/>
-      <c r="L12" s="84" t="s">
+      <c r="K12" s="73"/>
+      <c r="L12" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="M12" s="82" t="s">
+      <c r="M12" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="82" t="s">
+      <c r="N12" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="O12" s="82" t="s">
+      <c r="O12" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="84" t="s">
+      <c r="P12" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="Q12" s="83">
+      <c r="Q12" s="74">
         <v>42802</v>
       </c>
-      <c r="R12" s="84" t="s">
+      <c r="R12" s="75" t="s">
         <v>79</v>
       </c>
       <c r="S12" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="88"/>
-    </row>
-    <row r="13" spans="1:24" s="89" customFormat="1" ht="16.5">
-      <c r="A13" s="80">
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="79"/>
+    </row>
+    <row r="13" spans="1:24" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A13" s="71">
         <v>12</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="82" t="s">
+      <c r="F13" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="82" t="s">
+      <c r="G13" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="83">
+      <c r="H13" s="74">
         <v>42800</v>
       </c>
-      <c r="I13" s="82" t="s">
+      <c r="I13" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="83">
+      <c r="J13" s="74">
         <v>42800</v>
       </c>
-      <c r="K13" s="82"/>
-      <c r="L13" s="84" t="s">
+      <c r="K13" s="73"/>
+      <c r="L13" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="82" t="s">
+      <c r="M13" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="N13" s="82" t="s">
+      <c r="N13" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="82" t="s">
+      <c r="O13" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="84" t="s">
+      <c r="P13" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="Q13" s="83">
+      <c r="Q13" s="74">
         <v>42802</v>
       </c>
-      <c r="R13" s="84" t="s">
+      <c r="R13" s="75" t="s">
         <v>79</v>
       </c>
       <c r="S13" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="88"/>
-    </row>
-    <row r="14" spans="1:24" s="89" customFormat="1" ht="16.5">
-      <c r="A14" s="80">
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="79"/>
+    </row>
+    <row r="14" spans="1:24" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A14" s="71">
         <v>13</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="82" t="s">
+      <c r="E14" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="82" t="s">
+      <c r="F14" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="82" t="s">
+      <c r="G14" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="83">
+      <c r="H14" s="74">
         <v>42802</v>
       </c>
-      <c r="I14" s="82" t="s">
+      <c r="I14" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="83">
+      <c r="J14" s="74">
         <v>42802</v>
       </c>
-      <c r="K14" s="82"/>
-      <c r="L14" s="84" t="s">
+      <c r="K14" s="73"/>
+      <c r="L14" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="M14" s="82" t="s">
+      <c r="M14" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="N14" s="82" t="s">
+      <c r="N14" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="O14" s="82" t="s">
+      <c r="O14" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="84" t="s">
+      <c r="P14" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="Q14" s="83">
+      <c r="Q14" s="74">
         <v>42802</v>
       </c>
-      <c r="R14" s="84" t="s">
+      <c r="R14" s="75" t="s">
         <v>79</v>
       </c>
       <c r="S14" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="88"/>
-    </row>
-    <row r="15" spans="1:24" s="89" customFormat="1" ht="16.5">
-      <c r="A15" s="80">
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="79"/>
+    </row>
+    <row r="15" spans="1:24" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A15" s="71">
         <v>14</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="82" t="s">
+      <c r="E15" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="82" t="s">
+      <c r="F15" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="82" t="s">
+      <c r="G15" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="83">
+      <c r="H15" s="74">
         <v>42802</v>
       </c>
-      <c r="I15" s="83" t="s">
+      <c r="I15" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="83">
+      <c r="J15" s="74">
         <v>42802</v>
       </c>
-      <c r="K15" s="82"/>
-      <c r="L15" s="84" t="s">
+      <c r="K15" s="73"/>
+      <c r="L15" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="82" t="s">
+      <c r="M15" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="N15" s="82" t="s">
+      <c r="N15" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="O15" s="82" t="s">
+      <c r="O15" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="84" t="s">
+      <c r="P15" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="Q15" s="83">
+      <c r="Q15" s="74">
         <v>42802</v>
       </c>
-      <c r="R15" s="84" t="s">
+      <c r="R15" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="S15" s="86"/>
+      <c r="S15" s="77"/>
       <c r="T15" s="63">
         <v>9648</v>
       </c>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="88"/>
-    </row>
-    <row r="16" spans="1:24" s="46" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A16" s="80">
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="79"/>
+    </row>
+    <row r="16" spans="1:24" s="46" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="71">
         <v>15</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="93" t="s">
+      <c r="C16" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D16" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="95" t="s">
+      <c r="E16" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="95" t="s">
+      <c r="F16" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="95" t="s">
+      <c r="G16" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="96">
+      <c r="H16" s="87">
         <v>42795</v>
       </c>
-      <c r="I16" s="95" t="s">
+      <c r="I16" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="96">
+      <c r="J16" s="87">
         <v>42795</v>
       </c>
-      <c r="K16" s="95"/>
-      <c r="L16" s="97" t="s">
+      <c r="K16" s="86"/>
+      <c r="L16" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="M16" s="95" t="s">
+      <c r="M16" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="N16" s="95" t="s">
+      <c r="N16" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="O16" s="95" t="s">
+      <c r="O16" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="P16" s="97" t="s">
+      <c r="P16" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="Q16" s="98">
+      <c r="Q16" s="89">
         <v>42802</v>
       </c>
-      <c r="R16" s="99" t="s">
+      <c r="R16" s="90" t="s">
         <v>79</v>
       </c>
       <c r="S16" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="T16" s="100"/>
+      <c r="T16" s="91"/>
       <c r="U16" s="56"/>
       <c r="V16" s="62"/>
-      <c r="W16" s="101"/>
+      <c r="W16" s="92"/>
       <c r="X16" s="65"/>
     </row>
-    <row r="17" spans="1:24" s="46" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A17" s="80">
+    <row r="17" spans="1:24" s="46" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="71">
         <v>16</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="94" t="s">
+      <c r="D17" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="95" t="s">
+      <c r="E17" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="95" t="s">
+      <c r="F17" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="95" t="s">
+      <c r="G17" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="96">
+      <c r="H17" s="87">
         <v>42797</v>
       </c>
-      <c r="I17" s="95" t="s">
+      <c r="I17" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="96">
+      <c r="J17" s="87">
         <v>42797</v>
       </c>
-      <c r="K17" s="95"/>
-      <c r="L17" s="97" t="s">
+      <c r="K17" s="86"/>
+      <c r="L17" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="M17" s="95" t="s">
+      <c r="M17" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="N17" s="95" t="s">
+      <c r="N17" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="O17" s="95" t="s">
+      <c r="O17" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="P17" s="97" t="s">
+      <c r="P17" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="Q17" s="98">
+      <c r="Q17" s="89">
         <v>42802</v>
       </c>
-      <c r="R17" s="99" t="s">
+      <c r="R17" s="90" t="s">
         <v>79</v>
       </c>
       <c r="S17" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="T17" s="102"/>
+      <c r="T17" s="93"/>
       <c r="U17" s="56"/>
       <c r="V17" s="62"/>
-      <c r="W17" s="101"/>
+      <c r="W17" s="92"/>
       <c r="X17" s="65"/>
     </row>
-    <row r="18" spans="1:24" s="46" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A18" s="80">
+    <row r="18" spans="1:24" s="46" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="71">
         <v>17</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="95" t="s">
+      <c r="E18" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="95" t="s">
+      <c r="F18" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="95" t="s">
+      <c r="G18" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="96">
+      <c r="H18" s="87">
         <v>42797</v>
       </c>
-      <c r="I18" s="95" t="s">
+      <c r="I18" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="96">
+      <c r="J18" s="87">
         <v>42797</v>
       </c>
-      <c r="K18" s="95"/>
-      <c r="L18" s="97" t="s">
+      <c r="K18" s="86"/>
+      <c r="L18" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="M18" s="95" t="s">
+      <c r="M18" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="N18" s="95" t="s">
+      <c r="N18" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="O18" s="95" t="s">
+      <c r="O18" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="97" t="s">
+      <c r="P18" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="Q18" s="98">
+      <c r="Q18" s="89">
         <v>42802</v>
       </c>
-      <c r="R18" s="99" t="s">
+      <c r="R18" s="90" t="s">
         <v>79</v>
       </c>
       <c r="S18" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="T18" s="103"/>
+      <c r="T18" s="94"/>
       <c r="U18" s="67"/>
       <c r="V18" s="62"/>
-      <c r="W18" s="101"/>
+      <c r="W18" s="92"/>
       <c r="X18" s="65"/>
     </row>
-    <row r="19" spans="1:24" s="46" customFormat="1" ht="24" customHeight="1">
-      <c r="A19" s="80">
+    <row r="19" spans="1:24" s="46" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="71">
         <v>18</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="93" t="s">
+      <c r="C19" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="94" t="s">
+      <c r="D19" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="95" t="s">
+      <c r="E19" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="95" t="s">
+      <c r="F19" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="G19" s="95" t="s">
+      <c r="G19" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="96">
+      <c r="H19" s="87">
         <v>42797</v>
       </c>
-      <c r="I19" s="95" t="s">
+      <c r="I19" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="96">
+      <c r="J19" s="87">
         <v>42797</v>
       </c>
-      <c r="K19" s="95"/>
-      <c r="L19" s="97" t="s">
+      <c r="K19" s="86"/>
+      <c r="L19" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="95" t="s">
+      <c r="M19" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="N19" s="95" t="s">
+      <c r="N19" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="O19" s="95" t="s">
+      <c r="O19" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="P19" s="97" t="s">
+      <c r="P19" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="Q19" s="98">
+      <c r="Q19" s="89">
         <v>42802</v>
       </c>
-      <c r="R19" s="99" t="s">
+      <c r="R19" s="90" t="s">
         <v>79</v>
       </c>
       <c r="S19" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="T19" s="102"/>
+      <c r="T19" s="93"/>
       <c r="U19" s="56"/>
       <c r="V19" s="62"/>
-      <c r="W19" s="101"/>
+      <c r="W19" s="92"/>
       <c r="X19" s="65"/>
     </row>
-    <row r="20" spans="1:24" s="46" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="80">
+    <row r="20" spans="1:24" s="46" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="71">
         <v>19</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="95" t="s">
+      <c r="E20" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="95" t="s">
+      <c r="F20" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="95" t="s">
+      <c r="G20" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="96">
+      <c r="H20" s="87">
         <v>42800</v>
       </c>
-      <c r="I20" s="95" t="s">
+      <c r="I20" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="96">
+      <c r="J20" s="87">
         <v>42800</v>
       </c>
-      <c r="K20" s="95"/>
-      <c r="L20" s="97" t="s">
+      <c r="K20" s="86"/>
+      <c r="L20" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="M20" s="95" t="s">
+      <c r="M20" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="N20" s="95" t="s">
+      <c r="N20" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="O20" s="95" t="s">
+      <c r="O20" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="P20" s="97" t="s">
+      <c r="P20" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="Q20" s="98">
+      <c r="Q20" s="89">
         <v>42802</v>
       </c>
-      <c r="R20" s="99" t="s">
+      <c r="R20" s="90" t="s">
         <v>79</v>
       </c>
       <c r="S20" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="T20" s="102"/>
+      <c r="T20" s="93"/>
       <c r="U20" s="56"/>
       <c r="V20" s="62"/>
-      <c r="W20" s="101"/>
+      <c r="W20" s="92"/>
       <c r="X20" s="65"/>
     </row>
-    <row r="21" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A21" s="80">
+    <row r="21" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A21" s="71">
         <v>20</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="104" t="s">
+      <c r="D21" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="95" t="s">
+      <c r="E21" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="95" t="s">
+      <c r="F21" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="G21" s="95" t="s">
+      <c r="G21" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="96">
+      <c r="H21" s="87">
         <v>42802</v>
       </c>
-      <c r="I21" s="95" t="s">
+      <c r="I21" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="J21" s="96">
+      <c r="J21" s="87">
         <v>42802</v>
       </c>
-      <c r="K21" s="95"/>
-      <c r="L21" s="97" t="s">
+      <c r="K21" s="86"/>
+      <c r="L21" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="M21" s="95" t="s">
+      <c r="M21" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="N21" s="95" t="s">
+      <c r="N21" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="O21" s="95" t="s">
+      <c r="O21" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="P21" s="97" t="s">
+      <c r="P21" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="Q21" s="98">
+      <c r="Q21" s="89">
         <v>42802</v>
       </c>
-      <c r="R21" s="99" t="s">
+      <c r="R21" s="90" t="s">
         <v>79</v>
       </c>
       <c r="S21" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="T21" s="102"/>
+      <c r="T21" s="93"/>
       <c r="U21" s="56"/>
       <c r="V21" s="62"/>
-      <c r="W21" s="101"/>
+      <c r="W21" s="92"/>
       <c r="X21" s="65"/>
     </row>
-    <row r="22" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A22" s="80">
+    <row r="22" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A22" s="71">
         <v>21</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="105" t="s">
+      <c r="C22" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="106" t="s">
+      <c r="D22" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="107" t="s">
+      <c r="E22" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="107" t="s">
+      <c r="F22" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="G22" s="107" t="s">
+      <c r="G22" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="H22" s="108">
+      <c r="H22" s="99">
         <v>42788</v>
       </c>
-      <c r="I22" s="107" t="s">
+      <c r="I22" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J22" s="108">
+      <c r="J22" s="99">
         <v>42788</v>
       </c>
-      <c r="K22" s="107"/>
-      <c r="L22" s="109" t="s">
+      <c r="K22" s="98"/>
+      <c r="L22" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="M22" s="107" t="s">
+      <c r="M22" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="N22" s="107" t="s">
+      <c r="N22" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O22" s="107"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="111"/>
-      <c r="S22" s="112" t="s">
+      <c r="O22" s="98"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="T22" s="100"/>
+      <c r="T22" s="91"/>
       <c r="U22" s="56"/>
       <c r="V22" s="62"/>
-      <c r="W22" s="113"/>
+      <c r="W22" s="104"/>
       <c r="X22" s="65"/>
     </row>
-    <row r="23" spans="1:24" s="46" customFormat="1" ht="33">
-      <c r="A23" s="80">
+    <row r="23" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A23" s="71">
         <v>22</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="105" t="s">
+      <c r="C23" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="106" t="s">
+      <c r="D23" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="E23" s="107" t="s">
+      <c r="E23" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="107" t="s">
+      <c r="F23" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="107" t="s">
+      <c r="G23" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="H23" s="108">
+      <c r="H23" s="99">
         <v>42788</v>
       </c>
-      <c r="I23" s="107" t="s">
+      <c r="I23" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J23" s="108">
+      <c r="J23" s="99">
         <v>42788</v>
       </c>
-      <c r="K23" s="107"/>
-      <c r="L23" s="109" t="s">
+      <c r="K23" s="98"/>
+      <c r="L23" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="M23" s="107" t="s">
+      <c r="M23" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="N23" s="107" t="s">
+      <c r="N23" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O23" s="107"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="111"/>
-      <c r="S23" s="112" t="s">
+      <c r="O23" s="98"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="103" t="s">
         <v>153</v>
       </c>
-      <c r="T23" s="102"/>
+      <c r="T23" s="93"/>
       <c r="U23" s="56"/>
       <c r="V23" s="62"/>
-      <c r="W23" s="113"/>
+      <c r="W23" s="104"/>
       <c r="X23" s="65"/>
     </row>
-    <row r="24" spans="1:24" s="46" customFormat="1" ht="33">
-      <c r="A24" s="80">
+    <row r="24" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A24" s="71">
         <v>23</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="105" t="s">
+      <c r="C24" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="106" t="s">
+      <c r="D24" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="E24" s="107" t="s">
+      <c r="E24" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="107" t="s">
+      <c r="F24" s="98" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="107" t="s">
+      <c r="G24" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="108">
+      <c r="H24" s="99">
         <v>42788</v>
       </c>
-      <c r="I24" s="107" t="s">
+      <c r="I24" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J24" s="108">
+      <c r="J24" s="99">
         <v>42788</v>
       </c>
-      <c r="K24" s="107"/>
-      <c r="L24" s="109" t="s">
+      <c r="K24" s="98"/>
+      <c r="L24" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="M24" s="107" t="s">
+      <c r="M24" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="N24" s="107" t="s">
+      <c r="N24" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O24" s="107"/>
-      <c r="P24" s="109"/>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="111"/>
-      <c r="S24" s="114" t="s">
+      <c r="O24" s="98"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="T24" s="102"/>
+      <c r="T24" s="93"/>
       <c r="U24" s="56"/>
       <c r="V24" s="62"/>
-      <c r="W24" s="113"/>
+      <c r="W24" s="104"/>
       <c r="X24" s="65"/>
     </row>
-    <row r="25" spans="1:24" s="46" customFormat="1" ht="33">
-      <c r="A25" s="80">
+    <row r="25" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A25" s="71">
         <v>24</v>
       </c>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="105" t="s">
+      <c r="C25" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="106" t="s">
+      <c r="D25" s="97" t="s">
         <v>158</v>
       </c>
-      <c r="E25" s="107" t="s">
+      <c r="E25" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="107" t="s">
+      <c r="F25" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="G25" s="107" t="s">
+      <c r="G25" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="H25" s="108">
+      <c r="H25" s="99">
         <v>42788</v>
       </c>
-      <c r="I25" s="107" t="s">
+      <c r="I25" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J25" s="108">
+      <c r="J25" s="99">
         <v>42788</v>
       </c>
-      <c r="K25" s="107"/>
-      <c r="L25" s="109" t="s">
+      <c r="K25" s="98"/>
+      <c r="L25" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="M25" s="107" t="s">
+      <c r="M25" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="N25" s="107" t="s">
+      <c r="N25" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O25" s="107"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="114" t="s">
+      <c r="O25" s="98"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="105" t="s">
         <v>160</v>
       </c>
-      <c r="T25" s="103"/>
+      <c r="T25" s="94"/>
       <c r="U25" s="67"/>
       <c r="V25" s="62"/>
-      <c r="W25" s="113"/>
+      <c r="W25" s="104"/>
       <c r="X25" s="65"/>
     </row>
-    <row r="26" spans="1:24" s="46" customFormat="1" ht="33">
-      <c r="A26" s="80">
+    <row r="26" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A26" s="71">
         <v>25</v>
       </c>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="105" t="s">
+      <c r="C26" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="106" t="s">
+      <c r="D26" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="107" t="s">
+      <c r="E26" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="107" t="s">
+      <c r="F26" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="G26" s="107" t="s">
+      <c r="G26" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="H26" s="108">
+      <c r="H26" s="99">
         <v>42788</v>
       </c>
-      <c r="I26" s="107" t="s">
+      <c r="I26" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J26" s="108">
+      <c r="J26" s="99">
         <v>42788</v>
       </c>
-      <c r="K26" s="107"/>
-      <c r="L26" s="109" t="s">
+      <c r="K26" s="98"/>
+      <c r="L26" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="M26" s="107" t="s">
+      <c r="M26" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="N26" s="107" t="s">
+      <c r="N26" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="107"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="111"/>
-      <c r="S26" s="115" t="s">
+      <c r="O26" s="98"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="T26" s="102"/>
+      <c r="T26" s="93"/>
       <c r="U26" s="56"/>
       <c r="V26" s="62"/>
-      <c r="W26" s="113"/>
+      <c r="W26" s="104"/>
       <c r="X26" s="65"/>
     </row>
-    <row r="27" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A27" s="80">
+    <row r="27" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A27" s="71">
         <v>26</v>
       </c>
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="105" t="s">
+      <c r="C27" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="116" t="s">
+      <c r="D27" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="107" t="s">
+      <c r="E27" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="107" t="s">
+      <c r="F27" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="G27" s="107" t="s">
+      <c r="G27" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="108">
+      <c r="H27" s="99">
         <v>42788</v>
       </c>
-      <c r="I27" s="107" t="s">
+      <c r="I27" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J27" s="108">
+      <c r="J27" s="99">
         <v>42788</v>
       </c>
-      <c r="K27" s="107"/>
-      <c r="L27" s="109" t="s">
+      <c r="K27" s="98"/>
+      <c r="L27" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="M27" s="107" t="s">
+      <c r="M27" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="N27" s="107" t="s">
+      <c r="N27" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O27" s="107"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="110"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="117" t="s">
+      <c r="O27" s="98"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="108" t="s">
         <v>165</v>
       </c>
-      <c r="T27" s="102"/>
+      <c r="T27" s="93"/>
       <c r="U27" s="56"/>
       <c r="V27" s="62"/>
-      <c r="W27" s="113"/>
+      <c r="W27" s="104"/>
       <c r="X27" s="65"/>
     </row>
-    <row r="28" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A28" s="80">
+    <row r="28" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A28" s="71">
         <v>27</v>
       </c>
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="105" t="s">
+      <c r="C28" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="116" t="s">
+      <c r="D28" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="107" t="s">
+      <c r="E28" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="107" t="s">
+      <c r="F28" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="G28" s="107" t="s">
+      <c r="G28" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="H28" s="108">
+      <c r="H28" s="99">
         <v>42788</v>
       </c>
-      <c r="I28" s="107" t="s">
+      <c r="I28" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J28" s="108">
+      <c r="J28" s="99">
         <v>42788</v>
       </c>
-      <c r="K28" s="107"/>
-      <c r="L28" s="109" t="s">
+      <c r="K28" s="98"/>
+      <c r="L28" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="M28" s="107" t="s">
+      <c r="M28" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="N28" s="107" t="s">
+      <c r="N28" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O28" s="107"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="117" t="s">
+      <c r="O28" s="98"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="109"/>
+      <c r="S28" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="T28" s="102"/>
+      <c r="T28" s="93"/>
       <c r="U28" s="56"/>
       <c r="V28" s="62"/>
-      <c r="W28" s="113"/>
+      <c r="W28" s="104"/>
       <c r="X28" s="65"/>
     </row>
-    <row r="29" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A29" s="80">
+    <row r="29" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A29" s="71">
         <v>28</v>
       </c>
-      <c r="B29" s="105" t="s">
+      <c r="B29" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="105" t="s">
+      <c r="C29" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="119" t="s">
+      <c r="D29" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="E29" s="107" t="s">
+      <c r="E29" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="G29" s="107" t="s">
+      <c r="G29" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="H29" s="108">
+      <c r="H29" s="99">
         <v>42788</v>
       </c>
-      <c r="I29" s="107" t="s">
+      <c r="I29" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J29" s="108">
+      <c r="J29" s="99">
         <v>42788</v>
       </c>
-      <c r="K29" s="107"/>
-      <c r="L29" s="109" t="s">
+      <c r="K29" s="98"/>
+      <c r="L29" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="M29" s="107" t="s">
+      <c r="M29" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="N29" s="107" t="s">
+      <c r="N29" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O29" s="107"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="110"/>
-      <c r="R29" s="118"/>
-      <c r="S29" s="112" t="s">
+      <c r="O29" s="98"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="103" t="s">
         <v>169</v>
       </c>
-      <c r="T29" s="102"/>
+      <c r="T29" s="93"/>
       <c r="U29" s="56"/>
       <c r="V29" s="62"/>
-      <c r="W29" s="113"/>
+      <c r="W29" s="104"/>
       <c r="X29" s="65"/>
     </row>
-    <row r="30" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A30" s="80">
+    <row r="30" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A30" s="71">
         <v>29</v>
       </c>
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="105" t="s">
+      <c r="C30" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="119" t="s">
+      <c r="D30" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="107" t="s">
+      <c r="E30" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="107" t="s">
+      <c r="F30" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="G30" s="107" t="s">
+      <c r="G30" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="H30" s="108">
+      <c r="H30" s="99">
         <v>42788</v>
       </c>
-      <c r="I30" s="107" t="s">
+      <c r="I30" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J30" s="108">
+      <c r="J30" s="99">
         <v>42788</v>
       </c>
-      <c r="K30" s="107"/>
-      <c r="L30" s="109" t="s">
+      <c r="K30" s="98"/>
+      <c r="L30" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="M30" s="107" t="s">
+      <c r="M30" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="N30" s="107" t="s">
+      <c r="N30" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O30" s="107"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="110"/>
-      <c r="R30" s="118"/>
-      <c r="S30" s="120" t="s">
+      <c r="O30" s="98"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="109"/>
+      <c r="S30" s="111" t="s">
         <v>171</v>
       </c>
-      <c r="T30" s="102"/>
+      <c r="T30" s="93"/>
       <c r="U30" s="56"/>
       <c r="V30" s="62"/>
-      <c r="W30" s="113"/>
+      <c r="W30" s="104"/>
       <c r="X30" s="65"/>
     </row>
-    <row r="31" spans="1:24" s="46" customFormat="1" ht="18">
-      <c r="A31" s="80">
+    <row r="31" spans="1:24" s="46" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A31" s="71">
         <v>30</v>
       </c>
-      <c r="B31" s="105" t="s">
+      <c r="B31" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="105" t="s">
+      <c r="C31" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="119" t="s">
+      <c r="D31" s="110" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="107" t="s">
+      <c r="E31" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="107" t="s">
+      <c r="F31" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="G31" s="107" t="s">
+      <c r="G31" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="H31" s="108">
+      <c r="H31" s="99">
         <v>42788</v>
       </c>
-      <c r="I31" s="107" t="s">
+      <c r="I31" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J31" s="108">
+      <c r="J31" s="99">
         <v>42788</v>
       </c>
-      <c r="K31" s="107"/>
-      <c r="L31" s="109" t="s">
+      <c r="K31" s="98"/>
+      <c r="L31" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="M31" s="107" t="s">
+      <c r="M31" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="N31" s="107" t="s">
+      <c r="N31" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O31" s="107"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="110"/>
-      <c r="R31" s="118"/>
-      <c r="S31" s="112" t="s">
+      <c r="O31" s="98"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="T31" s="121"/>
+      <c r="T31" s="112"/>
       <c r="U31" s="56"/>
       <c r="V31" s="56"/>
-      <c r="W31" s="113"/>
+      <c r="W31" s="104"/>
       <c r="X31" s="65"/>
     </row>
-    <row r="32" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A32" s="80">
+    <row r="32" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A32" s="71">
         <v>31</v>
       </c>
-      <c r="B32" s="105" t="s">
+      <c r="B32" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="105" t="s">
+      <c r="C32" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="119" t="s">
+      <c r="D32" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="E32" s="107" t="s">
+      <c r="E32" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="107" t="s">
+      <c r="F32" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="G32" s="107" t="s">
+      <c r="G32" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="H32" s="108">
+      <c r="H32" s="99">
         <v>42788</v>
       </c>
-      <c r="I32" s="107" t="s">
+      <c r="I32" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J32" s="108">
+      <c r="J32" s="99">
         <v>42788</v>
       </c>
-      <c r="K32" s="107"/>
-      <c r="L32" s="109" t="s">
+      <c r="K32" s="98"/>
+      <c r="L32" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="M32" s="107" t="s">
+      <c r="M32" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="N32" s="107" t="s">
+      <c r="N32" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O32" s="107"/>
-      <c r="P32" s="109"/>
-      <c r="Q32" s="110"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="120" t="s">
+      <c r="O32" s="98"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="109"/>
+      <c r="S32" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="T32" s="102"/>
+      <c r="T32" s="93"/>
       <c r="U32" s="56"/>
       <c r="V32" s="56"/>
-      <c r="W32" s="113"/>
+      <c r="W32" s="104"/>
       <c r="X32" s="65"/>
     </row>
-    <row r="33" spans="1:256" s="46" customFormat="1" ht="33">
-      <c r="A33" s="80">
+    <row r="33" spans="1:256" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A33" s="71">
         <v>32</v>
       </c>
-      <c r="B33" s="105" t="s">
+      <c r="B33" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="105" t="s">
+      <c r="C33" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="119" t="s">
+      <c r="D33" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="E33" s="107" t="s">
+      <c r="E33" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="107" t="s">
+      <c r="F33" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="G33" s="107" t="s">
+      <c r="G33" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="H33" s="108">
+      <c r="H33" s="99">
         <v>42788</v>
       </c>
-      <c r="I33" s="107" t="s">
+      <c r="I33" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J33" s="108">
+      <c r="J33" s="99">
         <v>42788</v>
       </c>
-      <c r="K33" s="107"/>
-      <c r="L33" s="109" t="s">
+      <c r="K33" s="98"/>
+      <c r="L33" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="M33" s="107" t="s">
+      <c r="M33" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="N33" s="107" t="s">
+      <c r="N33" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O33" s="107"/>
+      <c r="O33" s="98"/>
       <c r="P33" s="60"/>
-      <c r="Q33" s="108"/>
-      <c r="R33" s="122"/>
-      <c r="S33" s="112" t="s">
+      <c r="Q33" s="99"/>
+      <c r="R33" s="113"/>
+      <c r="S33" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="T33" s="102"/>
+      <c r="T33" s="93"/>
       <c r="U33" s="56"/>
       <c r="V33" s="56"/>
       <c r="W33" s="68"/>
       <c r="X33" s="65"/>
     </row>
-    <row r="34" spans="1:256" ht="16.5">
-      <c r="A34" s="80">
+    <row r="34" spans="1:256" ht="16" x14ac:dyDescent="0.15">
+      <c r="A34" s="71">
         <v>33</v>
       </c>
-      <c r="B34" s="105" t="s">
+      <c r="B34" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="105" t="s">
+      <c r="C34" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="119" t="s">
+      <c r="D34" s="110" t="s">
         <v>179</v>
       </c>
-      <c r="E34" s="107" t="s">
+      <c r="E34" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="107" t="s">
+      <c r="F34" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="G34" s="107" t="s">
+      <c r="G34" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="H34" s="108">
+      <c r="H34" s="99">
         <v>42788</v>
       </c>
-      <c r="I34" s="107" t="s">
+      <c r="I34" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J34" s="108">
+      <c r="J34" s="99">
         <v>42788</v>
       </c>
       <c r="K34" s="61"/>
-      <c r="L34" s="109" t="s">
+      <c r="L34" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="M34" s="107" t="s">
+      <c r="M34" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="N34" s="107" t="s">
+      <c r="N34" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O34" s="107"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="108"/>
-      <c r="R34" s="123"/>
-      <c r="S34" s="112" t="s">
+      <c r="O34" s="98"/>
+      <c r="P34" s="100"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="T34" s="102"/>
+      <c r="T34" s="93"/>
       <c r="U34" s="56"/>
       <c r="V34" s="56"/>
       <c r="W34" s="57"/>
     </row>
-    <row r="35" spans="1:256" ht="16.5">
-      <c r="A35" s="80">
+    <row r="35" spans="1:256" ht="16" x14ac:dyDescent="0.15">
+      <c r="A35" s="71">
         <v>34</v>
       </c>
-      <c r="B35" s="105" t="s">
+      <c r="B35" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="105" t="s">
+      <c r="C35" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="119" t="s">
+      <c r="D35" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="E35" s="107" t="s">
+      <c r="E35" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="107" t="s">
+      <c r="F35" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="G35" s="107" t="s">
+      <c r="G35" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="H35" s="108">
+      <c r="H35" s="99">
         <v>42788</v>
       </c>
-      <c r="I35" s="107" t="s">
+      <c r="I35" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J35" s="108">
+      <c r="J35" s="99">
         <v>42788</v>
       </c>
       <c r="K35" s="61"/>
-      <c r="L35" s="109" t="s">
+      <c r="L35" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="M35" s="107" t="s">
+      <c r="M35" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="N35" s="107" t="s">
+      <c r="N35" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O35" s="107"/>
+      <c r="O35" s="98"/>
       <c r="P35" s="56"/>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="123"/>
-      <c r="S35" s="120" t="s">
+      <c r="Q35" s="99"/>
+      <c r="R35" s="114"/>
+      <c r="S35" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="T35" s="102"/>
+      <c r="T35" s="93"/>
       <c r="U35" s="56"/>
       <c r="V35" s="56"/>
       <c r="W35" s="57"/>
     </row>
-    <row r="36" spans="1:256" ht="16.5">
-      <c r="A36" s="80">
+    <row r="36" spans="1:256" ht="16" x14ac:dyDescent="0.15">
+      <c r="A36" s="71">
         <v>35</v>
       </c>
-      <c r="B36" s="105" t="s">
+      <c r="B36" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="105" t="s">
+      <c r="C36" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="119" t="s">
+      <c r="D36" s="110" t="s">
         <v>186</v>
       </c>
-      <c r="E36" s="107" t="s">
+      <c r="E36" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="F36" s="107" t="s">
+      <c r="F36" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="G36" s="107" t="s">
+      <c r="G36" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="H36" s="108">
+      <c r="H36" s="99">
         <v>42788</v>
       </c>
-      <c r="I36" s="107" t="s">
+      <c r="I36" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J36" s="108">
+      <c r="J36" s="99">
         <v>42788</v>
       </c>
       <c r="K36" s="61"/>
-      <c r="L36" s="109" t="s">
+      <c r="L36" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="M36" s="107" t="s">
+      <c r="M36" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="N36" s="107" t="s">
+      <c r="N36" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O36" s="107"/>
+      <c r="O36" s="98"/>
       <c r="P36" s="62"/>
-      <c r="Q36" s="108"/>
-      <c r="R36" s="123"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="114"/>
       <c r="S36" s="7"/>
-      <c r="T36" s="102">
+      <c r="T36" s="93">
         <v>9424</v>
       </c>
       <c r="U36" s="56"/>
       <c r="V36" s="56"/>
       <c r="W36" s="57"/>
     </row>
-    <row r="37" spans="1:256" ht="16.5">
-      <c r="A37" s="80">
+    <row r="37" spans="1:256" ht="16" x14ac:dyDescent="0.15">
+      <c r="A37" s="71">
         <v>36</v>
       </c>
-      <c r="B37" s="105" t="s">
+      <c r="B37" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="105" t="s">
+      <c r="C37" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="116" t="s">
+      <c r="D37" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="E37" s="107" t="s">
+      <c r="E37" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="F37" s="124" t="s">
+      <c r="F37" s="115" t="s">
         <v>188</v>
       </c>
-      <c r="G37" s="107" t="s">
+      <c r="G37" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="H37" s="108">
+      <c r="H37" s="99">
         <v>42795</v>
       </c>
-      <c r="I37" s="107" t="s">
+      <c r="I37" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J37" s="108">
+      <c r="J37" s="99">
         <v>42795</v>
       </c>
-      <c r="K37" s="107"/>
-      <c r="L37" s="109" t="s">
+      <c r="K37" s="98"/>
+      <c r="L37" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="M37" s="107" t="s">
+      <c r="M37" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="N37" s="107" t="s">
+      <c r="N37" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O37" s="109"/>
-      <c r="P37" s="109"/>
-      <c r="Q37" s="108"/>
-      <c r="R37" s="123"/>
+      <c r="O37" s="100"/>
+      <c r="P37" s="100"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="114"/>
       <c r="S37" s="7"/>
-      <c r="T37" s="102">
+      <c r="T37" s="93">
         <v>6958</v>
       </c>
       <c r="U37" s="56"/>
       <c r="V37" s="56"/>
-      <c r="W37" s="113"/>
-    </row>
-    <row r="38" spans="1:256" ht="16.5">
-      <c r="A38" s="80">
+      <c r="W37" s="104"/>
+    </row>
+    <row r="38" spans="1:256" ht="16" x14ac:dyDescent="0.15">
+      <c r="A38" s="71">
         <v>37</v>
       </c>
-      <c r="B38" s="105" t="s">
+      <c r="B38" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="105" t="s">
+      <c r="C38" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="116" t="s">
+      <c r="D38" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="E38" s="107" t="s">
+      <c r="E38" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="124" t="s">
+      <c r="F38" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="G38" s="107" t="s">
+      <c r="G38" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="H38" s="108">
+      <c r="H38" s="99">
         <v>42795</v>
       </c>
-      <c r="I38" s="107" t="s">
+      <c r="I38" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J38" s="108">
+      <c r="J38" s="99">
         <v>42795</v>
       </c>
-      <c r="K38" s="107"/>
-      <c r="L38" s="109" t="s">
+      <c r="K38" s="98"/>
+      <c r="L38" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="M38" s="107" t="s">
+      <c r="M38" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="N38" s="107" t="s">
+      <c r="N38" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O38" s="109"/>
-      <c r="P38" s="109"/>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="123"/>
-      <c r="S38" s="125" t="s">
+      <c r="O38" s="100"/>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="99"/>
+      <c r="R38" s="114"/>
+      <c r="S38" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="T38" s="126"/>
+      <c r="T38" s="117"/>
       <c r="U38" s="69"/>
       <c r="V38" s="69"/>
-      <c r="W38" s="127"/>
-    </row>
-    <row r="39" spans="1:256" ht="16.5">
-      <c r="A39" s="80">
+      <c r="W38" s="118"/>
+    </row>
+    <row r="39" spans="1:256" ht="16" x14ac:dyDescent="0.15">
+      <c r="A39" s="71">
         <v>38</v>
       </c>
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="105" t="s">
+      <c r="C39" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="116" t="s">
+      <c r="D39" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="E39" s="107" t="s">
+      <c r="E39" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="124" t="s">
+      <c r="F39" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="G39" s="107" t="s">
+      <c r="G39" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="H39" s="108">
+      <c r="H39" s="99">
         <v>42797</v>
       </c>
-      <c r="I39" s="107" t="s">
+      <c r="I39" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J39" s="108">
+      <c r="J39" s="99">
         <v>42797</v>
       </c>
-      <c r="K39" s="107"/>
-      <c r="L39" s="109" t="s">
+      <c r="K39" s="98"/>
+      <c r="L39" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="M39" s="107" t="s">
+      <c r="M39" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="N39" s="107" t="s">
+      <c r="N39" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="108"/>
-      <c r="R39" s="123"/>
-      <c r="S39" s="112" t="s">
+      <c r="O39" s="100"/>
+      <c r="P39" s="100"/>
+      <c r="Q39" s="99"/>
+      <c r="R39" s="114"/>
+      <c r="S39" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="T39" s="128"/>
+      <c r="T39" s="119"/>
       <c r="U39" s="70"/>
       <c r="V39" s="70"/>
-      <c r="W39" s="127"/>
-    </row>
-    <row r="40" spans="1:256" ht="16.5">
-      <c r="A40" s="80">
+      <c r="W39" s="118"/>
+    </row>
+    <row r="40" spans="1:256" ht="16" x14ac:dyDescent="0.15">
+      <c r="A40" s="71">
         <v>39</v>
       </c>
-      <c r="B40" s="105" t="s">
+      <c r="B40" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="105" t="s">
+      <c r="C40" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="116" t="s">
+      <c r="D40" s="107" t="s">
         <v>197</v>
       </c>
-      <c r="E40" s="107" t="s">
+      <c r="E40" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="124" t="s">
+      <c r="F40" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="G40" s="107" t="s">
+      <c r="G40" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="H40" s="108">
+      <c r="H40" s="99">
         <v>42797</v>
       </c>
-      <c r="I40" s="107" t="s">
+      <c r="I40" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="J40" s="108">
+      <c r="J40" s="99">
         <v>42797</v>
       </c>
-      <c r="K40" s="107"/>
-      <c r="L40" s="109" t="s">
+      <c r="K40" s="98"/>
+      <c r="L40" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="M40" s="107" t="s">
+      <c r="M40" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="N40" s="107" t="s">
+      <c r="N40" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O40" s="109"/>
-      <c r="P40" s="109"/>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="109"/>
-      <c r="S40" s="129" t="s">
+      <c r="O40" s="100"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="99"/>
+      <c r="R40" s="100"/>
+      <c r="S40" s="120" t="s">
         <v>198</v>
       </c>
       <c r="T40" s="70"/>
       <c r="U40" s="70"/>
       <c r="V40" s="70"/>
-      <c r="W40" s="127"/>
-    </row>
-    <row r="41" spans="1:256" s="46" customFormat="1" ht="18" customHeight="1">
-      <c r="A41" s="80">
+      <c r="W40" s="118"/>
+    </row>
+    <row r="41" spans="1:256" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="71">
         <v>40</v>
       </c>
       <c r="B41" s="51" t="s">
@@ -4762,8 +4790,8 @@
       <c r="W41" s="64"/>
       <c r="X41" s="65"/>
     </row>
-    <row r="42" spans="1:256" s="46" customFormat="1" ht="18" customHeight="1">
-      <c r="A42" s="80">
+    <row r="42" spans="1:256" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="71">
         <v>41</v>
       </c>
       <c r="B42" s="51" t="s">
@@ -4822,8 +4850,8 @@
       <c r="W42" s="66"/>
       <c r="X42" s="65"/>
     </row>
-    <row r="43" spans="1:256" s="46" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A43" s="80">
+    <row r="43" spans="1:256" s="46" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="71">
         <v>42</v>
       </c>
       <c r="B43" s="51" t="s">
@@ -4882,915 +4910,915 @@
       <c r="W43" s="66"/>
       <c r="X43" s="65"/>
     </row>
-    <row r="44" spans="1:256" s="141" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A44" s="80">
+    <row r="44" spans="1:256" s="132" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="71">
         <v>43</v>
       </c>
-      <c r="B44" s="131" t="s">
+      <c r="B44" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="131" t="s">
+      <c r="C44" s="122" t="s">
         <v>215</v>
       </c>
-      <c r="D44" s="132" t="s">
+      <c r="D44" s="123" t="s">
         <v>216</v>
       </c>
-      <c r="E44" s="131" t="s">
+      <c r="E44" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="131" t="s">
+      <c r="F44" s="122" t="s">
         <v>217</v>
       </c>
-      <c r="G44" s="131" t="s">
+      <c r="G44" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="H44" s="133"/>
-      <c r="I44" s="131" t="s">
+      <c r="H44" s="124"/>
+      <c r="I44" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="J44" s="133"/>
-      <c r="K44" s="130"/>
-      <c r="L44" s="134" t="s">
+      <c r="J44" s="124"/>
+      <c r="K44" s="121"/>
+      <c r="L44" s="125" t="s">
         <v>218</v>
       </c>
-      <c r="M44" s="131" t="s">
+      <c r="M44" s="122" t="s">
         <v>219</v>
       </c>
-      <c r="N44" s="131" t="s">
+      <c r="N44" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="O44" s="131" t="s">
+      <c r="O44" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="P44" s="134" t="s">
+      <c r="P44" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="Q44" s="133"/>
-      <c r="R44" s="134" t="s">
+      <c r="Q44" s="124"/>
+      <c r="R44" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="S44" s="135"/>
-      <c r="T44" s="136"/>
-      <c r="U44" s="137"/>
-      <c r="V44" s="137"/>
-      <c r="W44" s="138"/>
-      <c r="X44" s="139"/>
-      <c r="Y44" s="140"/>
-      <c r="Z44" s="140"/>
-      <c r="AA44" s="140"/>
-      <c r="AB44" s="140"/>
-      <c r="AC44" s="140"/>
-      <c r="AD44" s="140"/>
-      <c r="AE44" s="140"/>
-      <c r="AF44" s="140"/>
-      <c r="AG44" s="140"/>
-      <c r="AH44" s="140"/>
-      <c r="AI44" s="140"/>
-      <c r="AJ44" s="140"/>
-      <c r="AK44" s="140"/>
-      <c r="AL44" s="140"/>
-      <c r="AM44" s="140"/>
-      <c r="AN44" s="140"/>
-      <c r="AO44" s="140"/>
-      <c r="AP44" s="140"/>
-      <c r="AQ44" s="140"/>
-      <c r="AR44" s="140"/>
-      <c r="AS44" s="140"/>
-      <c r="AT44" s="140"/>
-      <c r="AU44" s="140"/>
-      <c r="AV44" s="140"/>
-      <c r="AW44" s="140"/>
-      <c r="AX44" s="140"/>
-      <c r="AY44" s="140"/>
-      <c r="AZ44" s="140"/>
-      <c r="BA44" s="140"/>
-      <c r="BB44" s="140"/>
-      <c r="BC44" s="140"/>
-      <c r="BD44" s="140"/>
-      <c r="BE44" s="140"/>
-      <c r="BF44" s="140"/>
-      <c r="BG44" s="140"/>
-      <c r="BH44" s="140"/>
-      <c r="BI44" s="140"/>
-      <c r="BJ44" s="140"/>
-      <c r="BK44" s="140"/>
-      <c r="BL44" s="140"/>
-      <c r="BM44" s="140"/>
-      <c r="BN44" s="140"/>
-      <c r="BO44" s="140"/>
-      <c r="BP44" s="140"/>
-      <c r="BQ44" s="140"/>
-      <c r="BR44" s="140"/>
-      <c r="BS44" s="140"/>
-      <c r="BT44" s="140"/>
-      <c r="BU44" s="140"/>
-      <c r="BV44" s="140"/>
-      <c r="BW44" s="140"/>
-      <c r="BX44" s="140"/>
-      <c r="BY44" s="140"/>
-      <c r="BZ44" s="140"/>
-      <c r="CA44" s="140"/>
-      <c r="CB44" s="140"/>
-      <c r="CC44" s="140"/>
-      <c r="CD44" s="140"/>
-      <c r="CE44" s="140"/>
-      <c r="CF44" s="140"/>
-      <c r="CG44" s="140"/>
-      <c r="CH44" s="140"/>
-      <c r="CI44" s="140"/>
-      <c r="CJ44" s="140"/>
-      <c r="CK44" s="140"/>
-      <c r="CL44" s="140"/>
-      <c r="CM44" s="140"/>
-      <c r="CN44" s="140"/>
-      <c r="CO44" s="140"/>
-      <c r="CP44" s="140"/>
-      <c r="CQ44" s="140"/>
-      <c r="CR44" s="140"/>
-      <c r="CS44" s="140"/>
-      <c r="CT44" s="140"/>
-      <c r="CU44" s="140"/>
-      <c r="CV44" s="140"/>
-      <c r="CW44" s="140"/>
-      <c r="CX44" s="140"/>
-      <c r="CY44" s="140"/>
-      <c r="CZ44" s="140"/>
-      <c r="DA44" s="140"/>
-      <c r="DB44" s="140"/>
-      <c r="DC44" s="140"/>
-      <c r="DD44" s="140"/>
-      <c r="DE44" s="140"/>
-      <c r="DF44" s="140"/>
-      <c r="DG44" s="140"/>
-      <c r="DH44" s="140"/>
-      <c r="DI44" s="140"/>
-      <c r="DJ44" s="140"/>
-      <c r="DK44" s="140"/>
-      <c r="DL44" s="140"/>
-      <c r="DM44" s="140"/>
-      <c r="DN44" s="140"/>
-      <c r="DO44" s="140"/>
-      <c r="DP44" s="140"/>
-      <c r="DQ44" s="140"/>
-      <c r="DR44" s="140"/>
-      <c r="DS44" s="140"/>
-      <c r="DT44" s="140"/>
-      <c r="DU44" s="140"/>
-      <c r="DV44" s="140"/>
-      <c r="DW44" s="140"/>
-      <c r="DX44" s="140"/>
-      <c r="DY44" s="140"/>
-      <c r="DZ44" s="140"/>
-      <c r="EA44" s="140"/>
-      <c r="EB44" s="140"/>
-      <c r="EC44" s="140"/>
-      <c r="ED44" s="140"/>
-      <c r="EE44" s="140"/>
-      <c r="EF44" s="140"/>
-      <c r="EG44" s="140"/>
-      <c r="EH44" s="140"/>
-      <c r="EI44" s="140"/>
-      <c r="EJ44" s="140"/>
-      <c r="EK44" s="140"/>
-      <c r="EL44" s="140"/>
-      <c r="EM44" s="140"/>
-      <c r="EN44" s="140"/>
-      <c r="EO44" s="140"/>
-      <c r="EP44" s="140"/>
-      <c r="EQ44" s="140"/>
-      <c r="ER44" s="140"/>
-      <c r="ES44" s="140"/>
-      <c r="ET44" s="140"/>
-      <c r="EU44" s="140"/>
-      <c r="EV44" s="140"/>
-      <c r="EW44" s="140"/>
-      <c r="EX44" s="140"/>
-      <c r="EY44" s="140"/>
-      <c r="EZ44" s="140"/>
-      <c r="FA44" s="140"/>
-      <c r="FB44" s="140"/>
-      <c r="FC44" s="140"/>
-      <c r="FD44" s="140"/>
-      <c r="FE44" s="140"/>
-      <c r="FF44" s="140"/>
-      <c r="FG44" s="140"/>
-      <c r="FH44" s="140"/>
-      <c r="FI44" s="140"/>
-      <c r="FJ44" s="140"/>
-      <c r="FK44" s="140"/>
-      <c r="FL44" s="140"/>
-      <c r="FM44" s="140"/>
-      <c r="FN44" s="140"/>
-      <c r="FO44" s="140"/>
-      <c r="FP44" s="140"/>
-      <c r="FQ44" s="140"/>
-      <c r="FR44" s="140"/>
-      <c r="FS44" s="140"/>
-      <c r="FT44" s="140"/>
-      <c r="FU44" s="140"/>
-      <c r="FV44" s="140"/>
-      <c r="FW44" s="140"/>
-      <c r="FX44" s="140"/>
-      <c r="FY44" s="140"/>
-      <c r="FZ44" s="140"/>
-      <c r="GA44" s="140"/>
-      <c r="GB44" s="140"/>
-      <c r="GC44" s="140"/>
-      <c r="GD44" s="140"/>
-      <c r="GE44" s="140"/>
-      <c r="GF44" s="140"/>
-      <c r="GG44" s="140"/>
-      <c r="GH44" s="140"/>
-      <c r="GI44" s="140"/>
-      <c r="GJ44" s="140"/>
-      <c r="GK44" s="140"/>
-      <c r="GL44" s="140"/>
-      <c r="GM44" s="140"/>
-      <c r="GN44" s="140"/>
-      <c r="GO44" s="140"/>
-      <c r="GP44" s="140"/>
-      <c r="GQ44" s="140"/>
-      <c r="GR44" s="140"/>
-      <c r="GS44" s="140"/>
-      <c r="GT44" s="140"/>
-      <c r="GU44" s="140"/>
-      <c r="GV44" s="140"/>
-      <c r="GW44" s="140"/>
-      <c r="GX44" s="140"/>
-      <c r="GY44" s="140"/>
-      <c r="GZ44" s="140"/>
-      <c r="HA44" s="140"/>
-      <c r="HB44" s="140"/>
-      <c r="HC44" s="140"/>
-      <c r="HD44" s="140"/>
-      <c r="HE44" s="140"/>
-      <c r="HF44" s="140"/>
-      <c r="HG44" s="140"/>
-      <c r="HH44" s="140"/>
-      <c r="HI44" s="140"/>
-      <c r="HJ44" s="140"/>
-      <c r="HK44" s="140"/>
-      <c r="HL44" s="140"/>
-      <c r="HM44" s="140"/>
-      <c r="HN44" s="140"/>
-      <c r="HO44" s="140"/>
-      <c r="HP44" s="140"/>
-      <c r="HQ44" s="140"/>
-      <c r="HR44" s="140"/>
-      <c r="HS44" s="140"/>
-      <c r="HT44" s="140"/>
-      <c r="HU44" s="140"/>
-      <c r="HV44" s="140"/>
-      <c r="HW44" s="140"/>
-      <c r="HX44" s="140"/>
-      <c r="HY44" s="140"/>
-      <c r="HZ44" s="140"/>
-      <c r="IA44" s="140"/>
-      <c r="IB44" s="140"/>
-      <c r="IC44" s="140"/>
-      <c r="ID44" s="140"/>
-      <c r="IE44" s="140"/>
-      <c r="IF44" s="140"/>
-      <c r="IG44" s="140"/>
-      <c r="IH44" s="140"/>
-      <c r="II44" s="140"/>
-      <c r="IJ44" s="140"/>
-      <c r="IK44" s="140"/>
-      <c r="IL44" s="140"/>
-      <c r="IM44" s="140"/>
-      <c r="IN44" s="140"/>
-      <c r="IO44" s="140"/>
-      <c r="IP44" s="140"/>
-      <c r="IQ44" s="140"/>
-      <c r="IR44" s="140"/>
-      <c r="IS44" s="140"/>
-      <c r="IT44" s="140"/>
-      <c r="IU44" s="140"/>
-      <c r="IV44" s="140"/>
-    </row>
-    <row r="45" spans="1:256" s="141" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A45" s="80">
+      <c r="S44" s="126"/>
+      <c r="T44" s="127"/>
+      <c r="U44" s="128"/>
+      <c r="V44" s="128"/>
+      <c r="W44" s="129"/>
+      <c r="X44" s="130"/>
+      <c r="Y44" s="131"/>
+      <c r="Z44" s="131"/>
+      <c r="AA44" s="131"/>
+      <c r="AB44" s="131"/>
+      <c r="AC44" s="131"/>
+      <c r="AD44" s="131"/>
+      <c r="AE44" s="131"/>
+      <c r="AF44" s="131"/>
+      <c r="AG44" s="131"/>
+      <c r="AH44" s="131"/>
+      <c r="AI44" s="131"/>
+      <c r="AJ44" s="131"/>
+      <c r="AK44" s="131"/>
+      <c r="AL44" s="131"/>
+      <c r="AM44" s="131"/>
+      <c r="AN44" s="131"/>
+      <c r="AO44" s="131"/>
+      <c r="AP44" s="131"/>
+      <c r="AQ44" s="131"/>
+      <c r="AR44" s="131"/>
+      <c r="AS44" s="131"/>
+      <c r="AT44" s="131"/>
+      <c r="AU44" s="131"/>
+      <c r="AV44" s="131"/>
+      <c r="AW44" s="131"/>
+      <c r="AX44" s="131"/>
+      <c r="AY44" s="131"/>
+      <c r="AZ44" s="131"/>
+      <c r="BA44" s="131"/>
+      <c r="BB44" s="131"/>
+      <c r="BC44" s="131"/>
+      <c r="BD44" s="131"/>
+      <c r="BE44" s="131"/>
+      <c r="BF44" s="131"/>
+      <c r="BG44" s="131"/>
+      <c r="BH44" s="131"/>
+      <c r="BI44" s="131"/>
+      <c r="BJ44" s="131"/>
+      <c r="BK44" s="131"/>
+      <c r="BL44" s="131"/>
+      <c r="BM44" s="131"/>
+      <c r="BN44" s="131"/>
+      <c r="BO44" s="131"/>
+      <c r="BP44" s="131"/>
+      <c r="BQ44" s="131"/>
+      <c r="BR44" s="131"/>
+      <c r="BS44" s="131"/>
+      <c r="BT44" s="131"/>
+      <c r="BU44" s="131"/>
+      <c r="BV44" s="131"/>
+      <c r="BW44" s="131"/>
+      <c r="BX44" s="131"/>
+      <c r="BY44" s="131"/>
+      <c r="BZ44" s="131"/>
+      <c r="CA44" s="131"/>
+      <c r="CB44" s="131"/>
+      <c r="CC44" s="131"/>
+      <c r="CD44" s="131"/>
+      <c r="CE44" s="131"/>
+      <c r="CF44" s="131"/>
+      <c r="CG44" s="131"/>
+      <c r="CH44" s="131"/>
+      <c r="CI44" s="131"/>
+      <c r="CJ44" s="131"/>
+      <c r="CK44" s="131"/>
+      <c r="CL44" s="131"/>
+      <c r="CM44" s="131"/>
+      <c r="CN44" s="131"/>
+      <c r="CO44" s="131"/>
+      <c r="CP44" s="131"/>
+      <c r="CQ44" s="131"/>
+      <c r="CR44" s="131"/>
+      <c r="CS44" s="131"/>
+      <c r="CT44" s="131"/>
+      <c r="CU44" s="131"/>
+      <c r="CV44" s="131"/>
+      <c r="CW44" s="131"/>
+      <c r="CX44" s="131"/>
+      <c r="CY44" s="131"/>
+      <c r="CZ44" s="131"/>
+      <c r="DA44" s="131"/>
+      <c r="DB44" s="131"/>
+      <c r="DC44" s="131"/>
+      <c r="DD44" s="131"/>
+      <c r="DE44" s="131"/>
+      <c r="DF44" s="131"/>
+      <c r="DG44" s="131"/>
+      <c r="DH44" s="131"/>
+      <c r="DI44" s="131"/>
+      <c r="DJ44" s="131"/>
+      <c r="DK44" s="131"/>
+      <c r="DL44" s="131"/>
+      <c r="DM44" s="131"/>
+      <c r="DN44" s="131"/>
+      <c r="DO44" s="131"/>
+      <c r="DP44" s="131"/>
+      <c r="DQ44" s="131"/>
+      <c r="DR44" s="131"/>
+      <c r="DS44" s="131"/>
+      <c r="DT44" s="131"/>
+      <c r="DU44" s="131"/>
+      <c r="DV44" s="131"/>
+      <c r="DW44" s="131"/>
+      <c r="DX44" s="131"/>
+      <c r="DY44" s="131"/>
+      <c r="DZ44" s="131"/>
+      <c r="EA44" s="131"/>
+      <c r="EB44" s="131"/>
+      <c r="EC44" s="131"/>
+      <c r="ED44" s="131"/>
+      <c r="EE44" s="131"/>
+      <c r="EF44" s="131"/>
+      <c r="EG44" s="131"/>
+      <c r="EH44" s="131"/>
+      <c r="EI44" s="131"/>
+      <c r="EJ44" s="131"/>
+      <c r="EK44" s="131"/>
+      <c r="EL44" s="131"/>
+      <c r="EM44" s="131"/>
+      <c r="EN44" s="131"/>
+      <c r="EO44" s="131"/>
+      <c r="EP44" s="131"/>
+      <c r="EQ44" s="131"/>
+      <c r="ER44" s="131"/>
+      <c r="ES44" s="131"/>
+      <c r="ET44" s="131"/>
+      <c r="EU44" s="131"/>
+      <c r="EV44" s="131"/>
+      <c r="EW44" s="131"/>
+      <c r="EX44" s="131"/>
+      <c r="EY44" s="131"/>
+      <c r="EZ44" s="131"/>
+      <c r="FA44" s="131"/>
+      <c r="FB44" s="131"/>
+      <c r="FC44" s="131"/>
+      <c r="FD44" s="131"/>
+      <c r="FE44" s="131"/>
+      <c r="FF44" s="131"/>
+      <c r="FG44" s="131"/>
+      <c r="FH44" s="131"/>
+      <c r="FI44" s="131"/>
+      <c r="FJ44" s="131"/>
+      <c r="FK44" s="131"/>
+      <c r="FL44" s="131"/>
+      <c r="FM44" s="131"/>
+      <c r="FN44" s="131"/>
+      <c r="FO44" s="131"/>
+      <c r="FP44" s="131"/>
+      <c r="FQ44" s="131"/>
+      <c r="FR44" s="131"/>
+      <c r="FS44" s="131"/>
+      <c r="FT44" s="131"/>
+      <c r="FU44" s="131"/>
+      <c r="FV44" s="131"/>
+      <c r="FW44" s="131"/>
+      <c r="FX44" s="131"/>
+      <c r="FY44" s="131"/>
+      <c r="FZ44" s="131"/>
+      <c r="GA44" s="131"/>
+      <c r="GB44" s="131"/>
+      <c r="GC44" s="131"/>
+      <c r="GD44" s="131"/>
+      <c r="GE44" s="131"/>
+      <c r="GF44" s="131"/>
+      <c r="GG44" s="131"/>
+      <c r="GH44" s="131"/>
+      <c r="GI44" s="131"/>
+      <c r="GJ44" s="131"/>
+      <c r="GK44" s="131"/>
+      <c r="GL44" s="131"/>
+      <c r="GM44" s="131"/>
+      <c r="GN44" s="131"/>
+      <c r="GO44" s="131"/>
+      <c r="GP44" s="131"/>
+      <c r="GQ44" s="131"/>
+      <c r="GR44" s="131"/>
+      <c r="GS44" s="131"/>
+      <c r="GT44" s="131"/>
+      <c r="GU44" s="131"/>
+      <c r="GV44" s="131"/>
+      <c r="GW44" s="131"/>
+      <c r="GX44" s="131"/>
+      <c r="GY44" s="131"/>
+      <c r="GZ44" s="131"/>
+      <c r="HA44" s="131"/>
+      <c r="HB44" s="131"/>
+      <c r="HC44" s="131"/>
+      <c r="HD44" s="131"/>
+      <c r="HE44" s="131"/>
+      <c r="HF44" s="131"/>
+      <c r="HG44" s="131"/>
+      <c r="HH44" s="131"/>
+      <c r="HI44" s="131"/>
+      <c r="HJ44" s="131"/>
+      <c r="HK44" s="131"/>
+      <c r="HL44" s="131"/>
+      <c r="HM44" s="131"/>
+      <c r="HN44" s="131"/>
+      <c r="HO44" s="131"/>
+      <c r="HP44" s="131"/>
+      <c r="HQ44" s="131"/>
+      <c r="HR44" s="131"/>
+      <c r="HS44" s="131"/>
+      <c r="HT44" s="131"/>
+      <c r="HU44" s="131"/>
+      <c r="HV44" s="131"/>
+      <c r="HW44" s="131"/>
+      <c r="HX44" s="131"/>
+      <c r="HY44" s="131"/>
+      <c r="HZ44" s="131"/>
+      <c r="IA44" s="131"/>
+      <c r="IB44" s="131"/>
+      <c r="IC44" s="131"/>
+      <c r="ID44" s="131"/>
+      <c r="IE44" s="131"/>
+      <c r="IF44" s="131"/>
+      <c r="IG44" s="131"/>
+      <c r="IH44" s="131"/>
+      <c r="II44" s="131"/>
+      <c r="IJ44" s="131"/>
+      <c r="IK44" s="131"/>
+      <c r="IL44" s="131"/>
+      <c r="IM44" s="131"/>
+      <c r="IN44" s="131"/>
+      <c r="IO44" s="131"/>
+      <c r="IP44" s="131"/>
+      <c r="IQ44" s="131"/>
+      <c r="IR44" s="131"/>
+      <c r="IS44" s="131"/>
+      <c r="IT44" s="131"/>
+      <c r="IU44" s="131"/>
+      <c r="IV44" s="131"/>
+    </row>
+    <row r="45" spans="1:256" s="132" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="71">
         <v>44</v>
       </c>
-      <c r="B45" s="131" t="s">
+      <c r="B45" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="131" t="s">
+      <c r="C45" s="122" t="s">
         <v>221</v>
       </c>
-      <c r="D45" s="143" t="s">
+      <c r="D45" s="134" t="s">
         <v>222</v>
       </c>
-      <c r="E45" s="131" t="s">
+      <c r="E45" s="122" t="s">
         <v>223</v>
       </c>
-      <c r="F45" s="131" t="s">
+      <c r="F45" s="122" t="s">
         <v>217</v>
       </c>
-      <c r="G45" s="131" t="s">
+      <c r="G45" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="144"/>
-      <c r="I45" s="131" t="s">
+      <c r="H45" s="135"/>
+      <c r="I45" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="J45" s="144"/>
-      <c r="K45" s="142"/>
-      <c r="L45" s="134" t="s">
+      <c r="J45" s="135"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="125" t="s">
         <v>224</v>
       </c>
-      <c r="M45" s="131" t="s">
+      <c r="M45" s="122" t="s">
         <v>219</v>
       </c>
-      <c r="N45" s="131" t="s">
+      <c r="N45" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="O45" s="131" t="s">
+      <c r="O45" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="P45" s="131" t="s">
+      <c r="P45" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="Q45" s="144"/>
-      <c r="R45" s="134" t="s">
+      <c r="Q45" s="135"/>
+      <c r="R45" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="S45" s="145"/>
-      <c r="T45" s="146"/>
-      <c r="U45" s="147"/>
-      <c r="V45" s="147"/>
-      <c r="W45" s="148"/>
-      <c r="X45" s="139"/>
-      <c r="Y45" s="140"/>
-      <c r="Z45" s="140"/>
-      <c r="AA45" s="140"/>
-      <c r="AB45" s="140"/>
-      <c r="AC45" s="140"/>
-      <c r="AD45" s="140"/>
-      <c r="AE45" s="140"/>
-      <c r="AF45" s="140"/>
-      <c r="AG45" s="140"/>
-      <c r="AH45" s="140"/>
-      <c r="AI45" s="140"/>
-      <c r="AJ45" s="140"/>
-      <c r="AK45" s="140"/>
-      <c r="AL45" s="140"/>
-      <c r="AM45" s="140"/>
-      <c r="AN45" s="140"/>
-      <c r="AO45" s="140"/>
-      <c r="AP45" s="140"/>
-      <c r="AQ45" s="140"/>
-      <c r="AR45" s="140"/>
-      <c r="AS45" s="140"/>
-      <c r="AT45" s="140"/>
-      <c r="AU45" s="140"/>
-      <c r="AV45" s="140"/>
-      <c r="AW45" s="140"/>
-      <c r="AX45" s="140"/>
-      <c r="AY45" s="140"/>
-      <c r="AZ45" s="140"/>
-      <c r="BA45" s="140"/>
-      <c r="BB45" s="140"/>
-      <c r="BC45" s="140"/>
-      <c r="BD45" s="140"/>
-      <c r="BE45" s="140"/>
-      <c r="BF45" s="140"/>
-      <c r="BG45" s="140"/>
-      <c r="BH45" s="140"/>
-      <c r="BI45" s="140"/>
-      <c r="BJ45" s="140"/>
-      <c r="BK45" s="140"/>
-      <c r="BL45" s="140"/>
-      <c r="BM45" s="140"/>
-      <c r="BN45" s="140"/>
-      <c r="BO45" s="140"/>
-      <c r="BP45" s="140"/>
-      <c r="BQ45" s="140"/>
-      <c r="BR45" s="140"/>
-      <c r="BS45" s="140"/>
-      <c r="BT45" s="140"/>
-      <c r="BU45" s="140"/>
-      <c r="BV45" s="140"/>
-      <c r="BW45" s="140"/>
-      <c r="BX45" s="140"/>
-      <c r="BY45" s="140"/>
-      <c r="BZ45" s="140"/>
-      <c r="CA45" s="140"/>
-      <c r="CB45" s="140"/>
-      <c r="CC45" s="140"/>
-      <c r="CD45" s="140"/>
-      <c r="CE45" s="140"/>
-      <c r="CF45" s="140"/>
-      <c r="CG45" s="140"/>
-      <c r="CH45" s="140"/>
-      <c r="CI45" s="140"/>
-      <c r="CJ45" s="140"/>
-      <c r="CK45" s="140"/>
-      <c r="CL45" s="140"/>
-      <c r="CM45" s="140"/>
-      <c r="CN45" s="140"/>
-      <c r="CO45" s="140"/>
-      <c r="CP45" s="140"/>
-      <c r="CQ45" s="140"/>
-      <c r="CR45" s="140"/>
-      <c r="CS45" s="140"/>
-      <c r="CT45" s="140"/>
-      <c r="CU45" s="140"/>
-      <c r="CV45" s="140"/>
-      <c r="CW45" s="140"/>
-      <c r="CX45" s="140"/>
-      <c r="CY45" s="140"/>
-      <c r="CZ45" s="140"/>
-      <c r="DA45" s="140"/>
-      <c r="DB45" s="140"/>
-      <c r="DC45" s="140"/>
-      <c r="DD45" s="140"/>
-      <c r="DE45" s="140"/>
-      <c r="DF45" s="140"/>
-      <c r="DG45" s="140"/>
-      <c r="DH45" s="140"/>
-      <c r="DI45" s="140"/>
-      <c r="DJ45" s="140"/>
-      <c r="DK45" s="140"/>
-      <c r="DL45" s="140"/>
-      <c r="DM45" s="140"/>
-      <c r="DN45" s="140"/>
-      <c r="DO45" s="140"/>
-      <c r="DP45" s="140"/>
-      <c r="DQ45" s="140"/>
-      <c r="DR45" s="140"/>
-      <c r="DS45" s="140"/>
-      <c r="DT45" s="140"/>
-      <c r="DU45" s="140"/>
-      <c r="DV45" s="140"/>
-      <c r="DW45" s="140"/>
-      <c r="DX45" s="140"/>
-      <c r="DY45" s="140"/>
-      <c r="DZ45" s="140"/>
-      <c r="EA45" s="140"/>
-      <c r="EB45" s="140"/>
-      <c r="EC45" s="140"/>
-      <c r="ED45" s="140"/>
-      <c r="EE45" s="140"/>
-      <c r="EF45" s="140"/>
-      <c r="EG45" s="140"/>
-      <c r="EH45" s="140"/>
-      <c r="EI45" s="140"/>
-      <c r="EJ45" s="140"/>
-      <c r="EK45" s="140"/>
-      <c r="EL45" s="140"/>
-      <c r="EM45" s="140"/>
-      <c r="EN45" s="140"/>
-      <c r="EO45" s="140"/>
-      <c r="EP45" s="140"/>
-      <c r="EQ45" s="140"/>
-      <c r="ER45" s="140"/>
-      <c r="ES45" s="140"/>
-      <c r="ET45" s="140"/>
-      <c r="EU45" s="140"/>
-      <c r="EV45" s="140"/>
-      <c r="EW45" s="140"/>
-      <c r="EX45" s="140"/>
-      <c r="EY45" s="140"/>
-      <c r="EZ45" s="140"/>
-      <c r="FA45" s="140"/>
-      <c r="FB45" s="140"/>
-      <c r="FC45" s="140"/>
-      <c r="FD45" s="140"/>
-      <c r="FE45" s="140"/>
-      <c r="FF45" s="140"/>
-      <c r="FG45" s="140"/>
-      <c r="FH45" s="140"/>
-      <c r="FI45" s="140"/>
-      <c r="FJ45" s="140"/>
-      <c r="FK45" s="140"/>
-      <c r="FL45" s="140"/>
-      <c r="FM45" s="140"/>
-      <c r="FN45" s="140"/>
-      <c r="FO45" s="140"/>
-      <c r="FP45" s="140"/>
-      <c r="FQ45" s="140"/>
-      <c r="FR45" s="140"/>
-      <c r="FS45" s="140"/>
-      <c r="FT45" s="140"/>
-      <c r="FU45" s="140"/>
-      <c r="FV45" s="140"/>
-      <c r="FW45" s="140"/>
-      <c r="FX45" s="140"/>
-      <c r="FY45" s="140"/>
-      <c r="FZ45" s="140"/>
-      <c r="GA45" s="140"/>
-      <c r="GB45" s="140"/>
-      <c r="GC45" s="140"/>
-      <c r="GD45" s="140"/>
-      <c r="GE45" s="140"/>
-      <c r="GF45" s="140"/>
-      <c r="GG45" s="140"/>
-      <c r="GH45" s="140"/>
-      <c r="GI45" s="140"/>
-      <c r="GJ45" s="140"/>
-      <c r="GK45" s="140"/>
-      <c r="GL45" s="140"/>
-      <c r="GM45" s="140"/>
-      <c r="GN45" s="140"/>
-      <c r="GO45" s="140"/>
-      <c r="GP45" s="140"/>
-      <c r="GQ45" s="140"/>
-      <c r="GR45" s="140"/>
-      <c r="GS45" s="140"/>
-      <c r="GT45" s="140"/>
-      <c r="GU45" s="140"/>
-      <c r="GV45" s="140"/>
-      <c r="GW45" s="140"/>
-      <c r="GX45" s="140"/>
-      <c r="GY45" s="140"/>
-      <c r="GZ45" s="140"/>
-      <c r="HA45" s="140"/>
-      <c r="HB45" s="140"/>
-      <c r="HC45" s="140"/>
-      <c r="HD45" s="140"/>
-      <c r="HE45" s="140"/>
-      <c r="HF45" s="140"/>
-      <c r="HG45" s="140"/>
-      <c r="HH45" s="140"/>
-      <c r="HI45" s="140"/>
-      <c r="HJ45" s="140"/>
-      <c r="HK45" s="140"/>
-      <c r="HL45" s="140"/>
-      <c r="HM45" s="140"/>
-      <c r="HN45" s="140"/>
-      <c r="HO45" s="140"/>
-      <c r="HP45" s="140"/>
-      <c r="HQ45" s="140"/>
-      <c r="HR45" s="140"/>
-      <c r="HS45" s="140"/>
-      <c r="HT45" s="140"/>
-      <c r="HU45" s="140"/>
-      <c r="HV45" s="140"/>
-      <c r="HW45" s="140"/>
-      <c r="HX45" s="140"/>
-      <c r="HY45" s="140"/>
-      <c r="HZ45" s="140"/>
-      <c r="IA45" s="140"/>
-      <c r="IB45" s="140"/>
-      <c r="IC45" s="140"/>
-      <c r="ID45" s="140"/>
-      <c r="IE45" s="140"/>
-      <c r="IF45" s="140"/>
-      <c r="IG45" s="140"/>
-      <c r="IH45" s="140"/>
-      <c r="II45" s="140"/>
-      <c r="IJ45" s="140"/>
-      <c r="IK45" s="140"/>
-      <c r="IL45" s="140"/>
-      <c r="IM45" s="140"/>
-      <c r="IN45" s="140"/>
-      <c r="IO45" s="140"/>
-      <c r="IP45" s="140"/>
-      <c r="IQ45" s="140"/>
-      <c r="IR45" s="140"/>
-      <c r="IS45" s="140"/>
-      <c r="IT45" s="140"/>
-      <c r="IU45" s="140"/>
-      <c r="IV45" s="140"/>
-    </row>
-    <row r="46" spans="1:256" s="141" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A46" s="80">
+      <c r="S45" s="136"/>
+      <c r="T45" s="137"/>
+      <c r="U45" s="138"/>
+      <c r="V45" s="138"/>
+      <c r="W45" s="139"/>
+      <c r="X45" s="130"/>
+      <c r="Y45" s="131"/>
+      <c r="Z45" s="131"/>
+      <c r="AA45" s="131"/>
+      <c r="AB45" s="131"/>
+      <c r="AC45" s="131"/>
+      <c r="AD45" s="131"/>
+      <c r="AE45" s="131"/>
+      <c r="AF45" s="131"/>
+      <c r="AG45" s="131"/>
+      <c r="AH45" s="131"/>
+      <c r="AI45" s="131"/>
+      <c r="AJ45" s="131"/>
+      <c r="AK45" s="131"/>
+      <c r="AL45" s="131"/>
+      <c r="AM45" s="131"/>
+      <c r="AN45" s="131"/>
+      <c r="AO45" s="131"/>
+      <c r="AP45" s="131"/>
+      <c r="AQ45" s="131"/>
+      <c r="AR45" s="131"/>
+      <c r="AS45" s="131"/>
+      <c r="AT45" s="131"/>
+      <c r="AU45" s="131"/>
+      <c r="AV45" s="131"/>
+      <c r="AW45" s="131"/>
+      <c r="AX45" s="131"/>
+      <c r="AY45" s="131"/>
+      <c r="AZ45" s="131"/>
+      <c r="BA45" s="131"/>
+      <c r="BB45" s="131"/>
+      <c r="BC45" s="131"/>
+      <c r="BD45" s="131"/>
+      <c r="BE45" s="131"/>
+      <c r="BF45" s="131"/>
+      <c r="BG45" s="131"/>
+      <c r="BH45" s="131"/>
+      <c r="BI45" s="131"/>
+      <c r="BJ45" s="131"/>
+      <c r="BK45" s="131"/>
+      <c r="BL45" s="131"/>
+      <c r="BM45" s="131"/>
+      <c r="BN45" s="131"/>
+      <c r="BO45" s="131"/>
+      <c r="BP45" s="131"/>
+      <c r="BQ45" s="131"/>
+      <c r="BR45" s="131"/>
+      <c r="BS45" s="131"/>
+      <c r="BT45" s="131"/>
+      <c r="BU45" s="131"/>
+      <c r="BV45" s="131"/>
+      <c r="BW45" s="131"/>
+      <c r="BX45" s="131"/>
+      <c r="BY45" s="131"/>
+      <c r="BZ45" s="131"/>
+      <c r="CA45" s="131"/>
+      <c r="CB45" s="131"/>
+      <c r="CC45" s="131"/>
+      <c r="CD45" s="131"/>
+      <c r="CE45" s="131"/>
+      <c r="CF45" s="131"/>
+      <c r="CG45" s="131"/>
+      <c r="CH45" s="131"/>
+      <c r="CI45" s="131"/>
+      <c r="CJ45" s="131"/>
+      <c r="CK45" s="131"/>
+      <c r="CL45" s="131"/>
+      <c r="CM45" s="131"/>
+      <c r="CN45" s="131"/>
+      <c r="CO45" s="131"/>
+      <c r="CP45" s="131"/>
+      <c r="CQ45" s="131"/>
+      <c r="CR45" s="131"/>
+      <c r="CS45" s="131"/>
+      <c r="CT45" s="131"/>
+      <c r="CU45" s="131"/>
+      <c r="CV45" s="131"/>
+      <c r="CW45" s="131"/>
+      <c r="CX45" s="131"/>
+      <c r="CY45" s="131"/>
+      <c r="CZ45" s="131"/>
+      <c r="DA45" s="131"/>
+      <c r="DB45" s="131"/>
+      <c r="DC45" s="131"/>
+      <c r="DD45" s="131"/>
+      <c r="DE45" s="131"/>
+      <c r="DF45" s="131"/>
+      <c r="DG45" s="131"/>
+      <c r="DH45" s="131"/>
+      <c r="DI45" s="131"/>
+      <c r="DJ45" s="131"/>
+      <c r="DK45" s="131"/>
+      <c r="DL45" s="131"/>
+      <c r="DM45" s="131"/>
+      <c r="DN45" s="131"/>
+      <c r="DO45" s="131"/>
+      <c r="DP45" s="131"/>
+      <c r="DQ45" s="131"/>
+      <c r="DR45" s="131"/>
+      <c r="DS45" s="131"/>
+      <c r="DT45" s="131"/>
+      <c r="DU45" s="131"/>
+      <c r="DV45" s="131"/>
+      <c r="DW45" s="131"/>
+      <c r="DX45" s="131"/>
+      <c r="DY45" s="131"/>
+      <c r="DZ45" s="131"/>
+      <c r="EA45" s="131"/>
+      <c r="EB45" s="131"/>
+      <c r="EC45" s="131"/>
+      <c r="ED45" s="131"/>
+      <c r="EE45" s="131"/>
+      <c r="EF45" s="131"/>
+      <c r="EG45" s="131"/>
+      <c r="EH45" s="131"/>
+      <c r="EI45" s="131"/>
+      <c r="EJ45" s="131"/>
+      <c r="EK45" s="131"/>
+      <c r="EL45" s="131"/>
+      <c r="EM45" s="131"/>
+      <c r="EN45" s="131"/>
+      <c r="EO45" s="131"/>
+      <c r="EP45" s="131"/>
+      <c r="EQ45" s="131"/>
+      <c r="ER45" s="131"/>
+      <c r="ES45" s="131"/>
+      <c r="ET45" s="131"/>
+      <c r="EU45" s="131"/>
+      <c r="EV45" s="131"/>
+      <c r="EW45" s="131"/>
+      <c r="EX45" s="131"/>
+      <c r="EY45" s="131"/>
+      <c r="EZ45" s="131"/>
+      <c r="FA45" s="131"/>
+      <c r="FB45" s="131"/>
+      <c r="FC45" s="131"/>
+      <c r="FD45" s="131"/>
+      <c r="FE45" s="131"/>
+      <c r="FF45" s="131"/>
+      <c r="FG45" s="131"/>
+      <c r="FH45" s="131"/>
+      <c r="FI45" s="131"/>
+      <c r="FJ45" s="131"/>
+      <c r="FK45" s="131"/>
+      <c r="FL45" s="131"/>
+      <c r="FM45" s="131"/>
+      <c r="FN45" s="131"/>
+      <c r="FO45" s="131"/>
+      <c r="FP45" s="131"/>
+      <c r="FQ45" s="131"/>
+      <c r="FR45" s="131"/>
+      <c r="FS45" s="131"/>
+      <c r="FT45" s="131"/>
+      <c r="FU45" s="131"/>
+      <c r="FV45" s="131"/>
+      <c r="FW45" s="131"/>
+      <c r="FX45" s="131"/>
+      <c r="FY45" s="131"/>
+      <c r="FZ45" s="131"/>
+      <c r="GA45" s="131"/>
+      <c r="GB45" s="131"/>
+      <c r="GC45" s="131"/>
+      <c r="GD45" s="131"/>
+      <c r="GE45" s="131"/>
+      <c r="GF45" s="131"/>
+      <c r="GG45" s="131"/>
+      <c r="GH45" s="131"/>
+      <c r="GI45" s="131"/>
+      <c r="GJ45" s="131"/>
+      <c r="GK45" s="131"/>
+      <c r="GL45" s="131"/>
+      <c r="GM45" s="131"/>
+      <c r="GN45" s="131"/>
+      <c r="GO45" s="131"/>
+      <c r="GP45" s="131"/>
+      <c r="GQ45" s="131"/>
+      <c r="GR45" s="131"/>
+      <c r="GS45" s="131"/>
+      <c r="GT45" s="131"/>
+      <c r="GU45" s="131"/>
+      <c r="GV45" s="131"/>
+      <c r="GW45" s="131"/>
+      <c r="GX45" s="131"/>
+      <c r="GY45" s="131"/>
+      <c r="GZ45" s="131"/>
+      <c r="HA45" s="131"/>
+      <c r="HB45" s="131"/>
+      <c r="HC45" s="131"/>
+      <c r="HD45" s="131"/>
+      <c r="HE45" s="131"/>
+      <c r="HF45" s="131"/>
+      <c r="HG45" s="131"/>
+      <c r="HH45" s="131"/>
+      <c r="HI45" s="131"/>
+      <c r="HJ45" s="131"/>
+      <c r="HK45" s="131"/>
+      <c r="HL45" s="131"/>
+      <c r="HM45" s="131"/>
+      <c r="HN45" s="131"/>
+      <c r="HO45" s="131"/>
+      <c r="HP45" s="131"/>
+      <c r="HQ45" s="131"/>
+      <c r="HR45" s="131"/>
+      <c r="HS45" s="131"/>
+      <c r="HT45" s="131"/>
+      <c r="HU45" s="131"/>
+      <c r="HV45" s="131"/>
+      <c r="HW45" s="131"/>
+      <c r="HX45" s="131"/>
+      <c r="HY45" s="131"/>
+      <c r="HZ45" s="131"/>
+      <c r="IA45" s="131"/>
+      <c r="IB45" s="131"/>
+      <c r="IC45" s="131"/>
+      <c r="ID45" s="131"/>
+      <c r="IE45" s="131"/>
+      <c r="IF45" s="131"/>
+      <c r="IG45" s="131"/>
+      <c r="IH45" s="131"/>
+      <c r="II45" s="131"/>
+      <c r="IJ45" s="131"/>
+      <c r="IK45" s="131"/>
+      <c r="IL45" s="131"/>
+      <c r="IM45" s="131"/>
+      <c r="IN45" s="131"/>
+      <c r="IO45" s="131"/>
+      <c r="IP45" s="131"/>
+      <c r="IQ45" s="131"/>
+      <c r="IR45" s="131"/>
+      <c r="IS45" s="131"/>
+      <c r="IT45" s="131"/>
+      <c r="IU45" s="131"/>
+      <c r="IV45" s="131"/>
+    </row>
+    <row r="46" spans="1:256" s="132" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="71">
         <v>45</v>
       </c>
-      <c r="B46" s="150" t="s">
+      <c r="B46" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="150" t="s">
+      <c r="C46" s="141" t="s">
         <v>221</v>
       </c>
-      <c r="D46" s="151" t="s">
+      <c r="D46" s="142" t="s">
         <v>225</v>
       </c>
-      <c r="E46" s="150" t="s">
+      <c r="E46" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="F46" s="150" t="s">
+      <c r="F46" s="141" t="s">
         <v>217</v>
       </c>
-      <c r="G46" s="150" t="s">
+      <c r="G46" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="H46" s="152"/>
-      <c r="I46" s="150" t="s">
+      <c r="H46" s="143"/>
+      <c r="I46" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="J46" s="152"/>
-      <c r="K46" s="149"/>
-      <c r="L46" s="153" t="s">
+      <c r="J46" s="143"/>
+      <c r="K46" s="140"/>
+      <c r="L46" s="144" t="s">
         <v>218</v>
       </c>
-      <c r="M46" s="150" t="s">
+      <c r="M46" s="141" t="s">
         <v>219</v>
       </c>
-      <c r="N46" s="150" t="s">
+      <c r="N46" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="O46" s="150" t="s">
+      <c r="O46" s="141" t="s">
         <v>220</v>
       </c>
-      <c r="P46" s="150" t="s">
+      <c r="P46" s="141" t="s">
         <v>220</v>
       </c>
-      <c r="Q46" s="152"/>
-      <c r="R46" s="153" t="s">
+      <c r="Q46" s="143"/>
+      <c r="R46" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="S46" s="154"/>
-      <c r="T46" s="154"/>
-      <c r="U46" s="154"/>
-      <c r="V46" s="154"/>
-      <c r="W46" s="155"/>
-      <c r="X46" s="139"/>
-      <c r="Y46" s="140"/>
-      <c r="Z46" s="140"/>
-      <c r="AA46" s="140"/>
-      <c r="AB46" s="140"/>
-      <c r="AC46" s="140"/>
-      <c r="AD46" s="140"/>
-      <c r="AE46" s="140"/>
-      <c r="AF46" s="140"/>
-      <c r="AG46" s="140"/>
-      <c r="AH46" s="140"/>
-      <c r="AI46" s="140"/>
-      <c r="AJ46" s="140"/>
-      <c r="AK46" s="140"/>
-      <c r="AL46" s="140"/>
-      <c r="AM46" s="140"/>
-      <c r="AN46" s="140"/>
-      <c r="AO46" s="140"/>
-      <c r="AP46" s="140"/>
-      <c r="AQ46" s="140"/>
-      <c r="AR46" s="140"/>
-      <c r="AS46" s="140"/>
-      <c r="AT46" s="140"/>
-      <c r="AU46" s="140"/>
-      <c r="AV46" s="140"/>
-      <c r="AW46" s="140"/>
-      <c r="AX46" s="140"/>
-      <c r="AY46" s="140"/>
-      <c r="AZ46" s="140"/>
-      <c r="BA46" s="140"/>
-      <c r="BB46" s="140"/>
-      <c r="BC46" s="140"/>
-      <c r="BD46" s="140"/>
-      <c r="BE46" s="140"/>
-      <c r="BF46" s="140"/>
-      <c r="BG46" s="140"/>
-      <c r="BH46" s="140"/>
-      <c r="BI46" s="140"/>
-      <c r="BJ46" s="140"/>
-      <c r="BK46" s="140"/>
-      <c r="BL46" s="140"/>
-      <c r="BM46" s="140"/>
-      <c r="BN46" s="140"/>
-      <c r="BO46" s="140"/>
-      <c r="BP46" s="140"/>
-      <c r="BQ46" s="140"/>
-      <c r="BR46" s="140"/>
-      <c r="BS46" s="140"/>
-      <c r="BT46" s="140"/>
-      <c r="BU46" s="140"/>
-      <c r="BV46" s="140"/>
-      <c r="BW46" s="140"/>
-      <c r="BX46" s="140"/>
-      <c r="BY46" s="140"/>
-      <c r="BZ46" s="140"/>
-      <c r="CA46" s="140"/>
-      <c r="CB46" s="140"/>
-      <c r="CC46" s="140"/>
-      <c r="CD46" s="140"/>
-      <c r="CE46" s="140"/>
-      <c r="CF46" s="140"/>
-      <c r="CG46" s="140"/>
-      <c r="CH46" s="140"/>
-      <c r="CI46" s="140"/>
-      <c r="CJ46" s="140"/>
-      <c r="CK46" s="140"/>
-      <c r="CL46" s="140"/>
-      <c r="CM46" s="140"/>
-      <c r="CN46" s="140"/>
-      <c r="CO46" s="140"/>
-      <c r="CP46" s="140"/>
-      <c r="CQ46" s="140"/>
-      <c r="CR46" s="140"/>
-      <c r="CS46" s="140"/>
-      <c r="CT46" s="140"/>
-      <c r="CU46" s="140"/>
-      <c r="CV46" s="140"/>
-      <c r="CW46" s="140"/>
-      <c r="CX46" s="140"/>
-      <c r="CY46" s="140"/>
-      <c r="CZ46" s="140"/>
-      <c r="DA46" s="140"/>
-      <c r="DB46" s="140"/>
-      <c r="DC46" s="140"/>
-      <c r="DD46" s="140"/>
-      <c r="DE46" s="140"/>
-      <c r="DF46" s="140"/>
-      <c r="DG46" s="140"/>
-      <c r="DH46" s="140"/>
-      <c r="DI46" s="140"/>
-      <c r="DJ46" s="140"/>
-      <c r="DK46" s="140"/>
-      <c r="DL46" s="140"/>
-      <c r="DM46" s="140"/>
-      <c r="DN46" s="140"/>
-      <c r="DO46" s="140"/>
-      <c r="DP46" s="140"/>
-      <c r="DQ46" s="140"/>
-      <c r="DR46" s="140"/>
-      <c r="DS46" s="140"/>
-      <c r="DT46" s="140"/>
-      <c r="DU46" s="140"/>
-      <c r="DV46" s="140"/>
-      <c r="DW46" s="140"/>
-      <c r="DX46" s="140"/>
-      <c r="DY46" s="140"/>
-      <c r="DZ46" s="140"/>
-      <c r="EA46" s="140"/>
-      <c r="EB46" s="140"/>
-      <c r="EC46" s="140"/>
-      <c r="ED46" s="140"/>
-      <c r="EE46" s="140"/>
-      <c r="EF46" s="140"/>
-      <c r="EG46" s="140"/>
-      <c r="EH46" s="140"/>
-      <c r="EI46" s="140"/>
-      <c r="EJ46" s="140"/>
-      <c r="EK46" s="140"/>
-      <c r="EL46" s="140"/>
-      <c r="EM46" s="140"/>
-      <c r="EN46" s="140"/>
-      <c r="EO46" s="140"/>
-      <c r="EP46" s="140"/>
-      <c r="EQ46" s="140"/>
-      <c r="ER46" s="140"/>
-      <c r="ES46" s="140"/>
-      <c r="ET46" s="140"/>
-      <c r="EU46" s="140"/>
-      <c r="EV46" s="140"/>
-      <c r="EW46" s="140"/>
-      <c r="EX46" s="140"/>
-      <c r="EY46" s="140"/>
-      <c r="EZ46" s="140"/>
-      <c r="FA46" s="140"/>
-      <c r="FB46" s="140"/>
-      <c r="FC46" s="140"/>
-      <c r="FD46" s="140"/>
-      <c r="FE46" s="140"/>
-      <c r="FF46" s="140"/>
-      <c r="FG46" s="140"/>
-      <c r="FH46" s="140"/>
-      <c r="FI46" s="140"/>
-      <c r="FJ46" s="140"/>
-      <c r="FK46" s="140"/>
-      <c r="FL46" s="140"/>
-      <c r="FM46" s="140"/>
-      <c r="FN46" s="140"/>
-      <c r="FO46" s="140"/>
-      <c r="FP46" s="140"/>
-      <c r="FQ46" s="140"/>
-      <c r="FR46" s="140"/>
-      <c r="FS46" s="140"/>
-      <c r="FT46" s="140"/>
-      <c r="FU46" s="140"/>
-      <c r="FV46" s="140"/>
-      <c r="FW46" s="140"/>
-      <c r="FX46" s="140"/>
-      <c r="FY46" s="140"/>
-      <c r="FZ46" s="140"/>
-      <c r="GA46" s="140"/>
-      <c r="GB46" s="140"/>
-      <c r="GC46" s="140"/>
-      <c r="GD46" s="140"/>
-      <c r="GE46" s="140"/>
-      <c r="GF46" s="140"/>
-      <c r="GG46" s="140"/>
-      <c r="GH46" s="140"/>
-      <c r="GI46" s="140"/>
-      <c r="GJ46" s="140"/>
-      <c r="GK46" s="140"/>
-      <c r="GL46" s="140"/>
-      <c r="GM46" s="140"/>
-      <c r="GN46" s="140"/>
-      <c r="GO46" s="140"/>
-      <c r="GP46" s="140"/>
-      <c r="GQ46" s="140"/>
-      <c r="GR46" s="140"/>
-      <c r="GS46" s="140"/>
-      <c r="GT46" s="140"/>
-      <c r="GU46" s="140"/>
-      <c r="GV46" s="140"/>
-      <c r="GW46" s="140"/>
-      <c r="GX46" s="140"/>
-      <c r="GY46" s="140"/>
-      <c r="GZ46" s="140"/>
-      <c r="HA46" s="140"/>
-      <c r="HB46" s="140"/>
-      <c r="HC46" s="140"/>
-      <c r="HD46" s="140"/>
-      <c r="HE46" s="140"/>
-      <c r="HF46" s="140"/>
-      <c r="HG46" s="140"/>
-      <c r="HH46" s="140"/>
-      <c r="HI46" s="140"/>
-      <c r="HJ46" s="140"/>
-      <c r="HK46" s="140"/>
-      <c r="HL46" s="140"/>
-      <c r="HM46" s="140"/>
-      <c r="HN46" s="140"/>
-      <c r="HO46" s="140"/>
-      <c r="HP46" s="140"/>
-      <c r="HQ46" s="140"/>
-      <c r="HR46" s="140"/>
-      <c r="HS46" s="140"/>
-      <c r="HT46" s="140"/>
-      <c r="HU46" s="140"/>
-      <c r="HV46" s="140"/>
-      <c r="HW46" s="140"/>
-      <c r="HX46" s="140"/>
-      <c r="HY46" s="140"/>
-      <c r="HZ46" s="140"/>
-      <c r="IA46" s="140"/>
-      <c r="IB46" s="140"/>
-      <c r="IC46" s="140"/>
-      <c r="ID46" s="140"/>
-      <c r="IE46" s="140"/>
-      <c r="IF46" s="140"/>
-      <c r="IG46" s="140"/>
-      <c r="IH46" s="140"/>
-      <c r="II46" s="140"/>
-      <c r="IJ46" s="140"/>
-      <c r="IK46" s="140"/>
-      <c r="IL46" s="140"/>
-      <c r="IM46" s="140"/>
-      <c r="IN46" s="140"/>
-      <c r="IO46" s="140"/>
-      <c r="IP46" s="140"/>
-      <c r="IQ46" s="140"/>
-      <c r="IR46" s="140"/>
-      <c r="IS46" s="140"/>
-      <c r="IT46" s="140"/>
-      <c r="IU46" s="140"/>
-      <c r="IV46" s="140"/>
-    </row>
-    <row r="47" spans="1:256" s="46" customFormat="1" ht="18" customHeight="1">
-      <c r="A47" s="80">
+      <c r="S46" s="145"/>
+      <c r="T46" s="145"/>
+      <c r="U46" s="145"/>
+      <c r="V46" s="145"/>
+      <c r="W46" s="146"/>
+      <c r="X46" s="130"/>
+      <c r="Y46" s="131"/>
+      <c r="Z46" s="131"/>
+      <c r="AA46" s="131"/>
+      <c r="AB46" s="131"/>
+      <c r="AC46" s="131"/>
+      <c r="AD46" s="131"/>
+      <c r="AE46" s="131"/>
+      <c r="AF46" s="131"/>
+      <c r="AG46" s="131"/>
+      <c r="AH46" s="131"/>
+      <c r="AI46" s="131"/>
+      <c r="AJ46" s="131"/>
+      <c r="AK46" s="131"/>
+      <c r="AL46" s="131"/>
+      <c r="AM46" s="131"/>
+      <c r="AN46" s="131"/>
+      <c r="AO46" s="131"/>
+      <c r="AP46" s="131"/>
+      <c r="AQ46" s="131"/>
+      <c r="AR46" s="131"/>
+      <c r="AS46" s="131"/>
+      <c r="AT46" s="131"/>
+      <c r="AU46" s="131"/>
+      <c r="AV46" s="131"/>
+      <c r="AW46" s="131"/>
+      <c r="AX46" s="131"/>
+      <c r="AY46" s="131"/>
+      <c r="AZ46" s="131"/>
+      <c r="BA46" s="131"/>
+      <c r="BB46" s="131"/>
+      <c r="BC46" s="131"/>
+      <c r="BD46" s="131"/>
+      <c r="BE46" s="131"/>
+      <c r="BF46" s="131"/>
+      <c r="BG46" s="131"/>
+      <c r="BH46" s="131"/>
+      <c r="BI46" s="131"/>
+      <c r="BJ46" s="131"/>
+      <c r="BK46" s="131"/>
+      <c r="BL46" s="131"/>
+      <c r="BM46" s="131"/>
+      <c r="BN46" s="131"/>
+      <c r="BO46" s="131"/>
+      <c r="BP46" s="131"/>
+      <c r="BQ46" s="131"/>
+      <c r="BR46" s="131"/>
+      <c r="BS46" s="131"/>
+      <c r="BT46" s="131"/>
+      <c r="BU46" s="131"/>
+      <c r="BV46" s="131"/>
+      <c r="BW46" s="131"/>
+      <c r="BX46" s="131"/>
+      <c r="BY46" s="131"/>
+      <c r="BZ46" s="131"/>
+      <c r="CA46" s="131"/>
+      <c r="CB46" s="131"/>
+      <c r="CC46" s="131"/>
+      <c r="CD46" s="131"/>
+      <c r="CE46" s="131"/>
+      <c r="CF46" s="131"/>
+      <c r="CG46" s="131"/>
+      <c r="CH46" s="131"/>
+      <c r="CI46" s="131"/>
+      <c r="CJ46" s="131"/>
+      <c r="CK46" s="131"/>
+      <c r="CL46" s="131"/>
+      <c r="CM46" s="131"/>
+      <c r="CN46" s="131"/>
+      <c r="CO46" s="131"/>
+      <c r="CP46" s="131"/>
+      <c r="CQ46" s="131"/>
+      <c r="CR46" s="131"/>
+      <c r="CS46" s="131"/>
+      <c r="CT46" s="131"/>
+      <c r="CU46" s="131"/>
+      <c r="CV46" s="131"/>
+      <c r="CW46" s="131"/>
+      <c r="CX46" s="131"/>
+      <c r="CY46" s="131"/>
+      <c r="CZ46" s="131"/>
+      <c r="DA46" s="131"/>
+      <c r="DB46" s="131"/>
+      <c r="DC46" s="131"/>
+      <c r="DD46" s="131"/>
+      <c r="DE46" s="131"/>
+      <c r="DF46" s="131"/>
+      <c r="DG46" s="131"/>
+      <c r="DH46" s="131"/>
+      <c r="DI46" s="131"/>
+      <c r="DJ46" s="131"/>
+      <c r="DK46" s="131"/>
+      <c r="DL46" s="131"/>
+      <c r="DM46" s="131"/>
+      <c r="DN46" s="131"/>
+      <c r="DO46" s="131"/>
+      <c r="DP46" s="131"/>
+      <c r="DQ46" s="131"/>
+      <c r="DR46" s="131"/>
+      <c r="DS46" s="131"/>
+      <c r="DT46" s="131"/>
+      <c r="DU46" s="131"/>
+      <c r="DV46" s="131"/>
+      <c r="DW46" s="131"/>
+      <c r="DX46" s="131"/>
+      <c r="DY46" s="131"/>
+      <c r="DZ46" s="131"/>
+      <c r="EA46" s="131"/>
+      <c r="EB46" s="131"/>
+      <c r="EC46" s="131"/>
+      <c r="ED46" s="131"/>
+      <c r="EE46" s="131"/>
+      <c r="EF46" s="131"/>
+      <c r="EG46" s="131"/>
+      <c r="EH46" s="131"/>
+      <c r="EI46" s="131"/>
+      <c r="EJ46" s="131"/>
+      <c r="EK46" s="131"/>
+      <c r="EL46" s="131"/>
+      <c r="EM46" s="131"/>
+      <c r="EN46" s="131"/>
+      <c r="EO46" s="131"/>
+      <c r="EP46" s="131"/>
+      <c r="EQ46" s="131"/>
+      <c r="ER46" s="131"/>
+      <c r="ES46" s="131"/>
+      <c r="ET46" s="131"/>
+      <c r="EU46" s="131"/>
+      <c r="EV46" s="131"/>
+      <c r="EW46" s="131"/>
+      <c r="EX46" s="131"/>
+      <c r="EY46" s="131"/>
+      <c r="EZ46" s="131"/>
+      <c r="FA46" s="131"/>
+      <c r="FB46" s="131"/>
+      <c r="FC46" s="131"/>
+      <c r="FD46" s="131"/>
+      <c r="FE46" s="131"/>
+      <c r="FF46" s="131"/>
+      <c r="FG46" s="131"/>
+      <c r="FH46" s="131"/>
+      <c r="FI46" s="131"/>
+      <c r="FJ46" s="131"/>
+      <c r="FK46" s="131"/>
+      <c r="FL46" s="131"/>
+      <c r="FM46" s="131"/>
+      <c r="FN46" s="131"/>
+      <c r="FO46" s="131"/>
+      <c r="FP46" s="131"/>
+      <c r="FQ46" s="131"/>
+      <c r="FR46" s="131"/>
+      <c r="FS46" s="131"/>
+      <c r="FT46" s="131"/>
+      <c r="FU46" s="131"/>
+      <c r="FV46" s="131"/>
+      <c r="FW46" s="131"/>
+      <c r="FX46" s="131"/>
+      <c r="FY46" s="131"/>
+      <c r="FZ46" s="131"/>
+      <c r="GA46" s="131"/>
+      <c r="GB46" s="131"/>
+      <c r="GC46" s="131"/>
+      <c r="GD46" s="131"/>
+      <c r="GE46" s="131"/>
+      <c r="GF46" s="131"/>
+      <c r="GG46" s="131"/>
+      <c r="GH46" s="131"/>
+      <c r="GI46" s="131"/>
+      <c r="GJ46" s="131"/>
+      <c r="GK46" s="131"/>
+      <c r="GL46" s="131"/>
+      <c r="GM46" s="131"/>
+      <c r="GN46" s="131"/>
+      <c r="GO46" s="131"/>
+      <c r="GP46" s="131"/>
+      <c r="GQ46" s="131"/>
+      <c r="GR46" s="131"/>
+      <c r="GS46" s="131"/>
+      <c r="GT46" s="131"/>
+      <c r="GU46" s="131"/>
+      <c r="GV46" s="131"/>
+      <c r="GW46" s="131"/>
+      <c r="GX46" s="131"/>
+      <c r="GY46" s="131"/>
+      <c r="GZ46" s="131"/>
+      <c r="HA46" s="131"/>
+      <c r="HB46" s="131"/>
+      <c r="HC46" s="131"/>
+      <c r="HD46" s="131"/>
+      <c r="HE46" s="131"/>
+      <c r="HF46" s="131"/>
+      <c r="HG46" s="131"/>
+      <c r="HH46" s="131"/>
+      <c r="HI46" s="131"/>
+      <c r="HJ46" s="131"/>
+      <c r="HK46" s="131"/>
+      <c r="HL46" s="131"/>
+      <c r="HM46" s="131"/>
+      <c r="HN46" s="131"/>
+      <c r="HO46" s="131"/>
+      <c r="HP46" s="131"/>
+      <c r="HQ46" s="131"/>
+      <c r="HR46" s="131"/>
+      <c r="HS46" s="131"/>
+      <c r="HT46" s="131"/>
+      <c r="HU46" s="131"/>
+      <c r="HV46" s="131"/>
+      <c r="HW46" s="131"/>
+      <c r="HX46" s="131"/>
+      <c r="HY46" s="131"/>
+      <c r="HZ46" s="131"/>
+      <c r="IA46" s="131"/>
+      <c r="IB46" s="131"/>
+      <c r="IC46" s="131"/>
+      <c r="ID46" s="131"/>
+      <c r="IE46" s="131"/>
+      <c r="IF46" s="131"/>
+      <c r="IG46" s="131"/>
+      <c r="IH46" s="131"/>
+      <c r="II46" s="131"/>
+      <c r="IJ46" s="131"/>
+      <c r="IK46" s="131"/>
+      <c r="IL46" s="131"/>
+      <c r="IM46" s="131"/>
+      <c r="IN46" s="131"/>
+      <c r="IO46" s="131"/>
+      <c r="IP46" s="131"/>
+      <c r="IQ46" s="131"/>
+      <c r="IR46" s="131"/>
+      <c r="IS46" s="131"/>
+      <c r="IT46" s="131"/>
+      <c r="IU46" s="131"/>
+      <c r="IV46" s="131"/>
+    </row>
+    <row r="47" spans="1:256" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="71">
         <v>46</v>
       </c>
-      <c r="B47" s="105" t="s">
+      <c r="B47" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="105" t="s">
+      <c r="C47" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="D47" s="119" t="s">
+      <c r="D47" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="E47" s="107" t="s">
+      <c r="E47" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="107" t="s">
+      <c r="F47" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="G47" s="107" t="s">
+      <c r="G47" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="H47" s="108">
+      <c r="H47" s="99">
         <v>42796</v>
       </c>
-      <c r="I47" s="107" t="s">
+      <c r="I47" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="J47" s="108">
+      <c r="J47" s="99">
         <v>42796</v>
       </c>
-      <c r="K47" s="107"/>
-      <c r="L47" s="109" t="s">
+      <c r="K47" s="98"/>
+      <c r="L47" s="100" t="s">
         <v>228</v>
       </c>
-      <c r="M47" s="107" t="s">
+      <c r="M47" s="98" t="s">
         <v>229</v>
       </c>
-      <c r="N47" s="107" t="s">
+      <c r="N47" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O47" s="107" t="s">
+      <c r="O47" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="P47" s="109" t="s">
+      <c r="P47" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="Q47" s="108">
+      <c r="Q47" s="99">
         <v>42797</v>
       </c>
-      <c r="R47" s="109" t="s">
+      <c r="R47" s="100" t="s">
         <v>79</v>
       </c>
       <c r="S47" s="63" t="s">
@@ -5799,60 +5827,60 @@
       <c r="T47" s="63"/>
       <c r="U47" s="56"/>
       <c r="V47" s="62"/>
-      <c r="W47" s="156"/>
+      <c r="W47" s="147"/>
       <c r="X47" s="65"/>
     </row>
-    <row r="48" spans="1:256" s="46" customFormat="1" ht="16.5">
-      <c r="A48" s="80">
+    <row r="48" spans="1:256" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A48" s="71">
         <v>47</v>
       </c>
-      <c r="B48" s="105" t="s">
+      <c r="B48" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="105" t="s">
+      <c r="C48" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="D48" s="119" t="s">
+      <c r="D48" s="110" t="s">
         <v>232</v>
       </c>
-      <c r="E48" s="107" t="s">
+      <c r="E48" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="107" t="s">
+      <c r="F48" s="98" t="s">
         <v>233</v>
       </c>
-      <c r="G48" s="107" t="s">
+      <c r="G48" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="H48" s="108">
+      <c r="H48" s="99">
         <v>42796</v>
       </c>
-      <c r="I48" s="107" t="s">
+      <c r="I48" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="J48" s="108">
+      <c r="J48" s="99">
         <v>42796</v>
       </c>
-      <c r="K48" s="107"/>
-      <c r="L48" s="109" t="s">
+      <c r="K48" s="98"/>
+      <c r="L48" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="M48" s="107" t="s">
+      <c r="M48" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="N48" s="107" t="s">
+      <c r="N48" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O48" s="107" t="s">
+      <c r="O48" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="P48" s="109" t="s">
+      <c r="P48" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="Q48" s="108">
+      <c r="Q48" s="99">
         <v>42797</v>
       </c>
-      <c r="R48" s="109" t="s">
+      <c r="R48" s="100" t="s">
         <v>79</v>
       </c>
       <c r="S48" s="63" t="s">
@@ -5861,60 +5889,60 @@
       <c r="T48" s="63"/>
       <c r="U48" s="56"/>
       <c r="V48" s="62"/>
-      <c r="W48" s="113"/>
+      <c r="W48" s="104"/>
       <c r="X48" s="65"/>
     </row>
-    <row r="49" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A49" s="80">
+    <row r="49" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A49" s="71">
         <v>48</v>
       </c>
-      <c r="B49" s="105" t="s">
+      <c r="B49" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="105" t="s">
+      <c r="C49" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="D49" s="119" t="s">
+      <c r="D49" s="110" t="s">
         <v>236</v>
       </c>
-      <c r="E49" s="107" t="s">
+      <c r="E49" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F49" s="107" t="s">
+      <c r="F49" s="98" t="s">
         <v>237</v>
       </c>
-      <c r="G49" s="107" t="s">
+      <c r="G49" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="H49" s="108">
+      <c r="H49" s="99">
         <v>42796</v>
       </c>
-      <c r="I49" s="107" t="s">
+      <c r="I49" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="J49" s="108">
+      <c r="J49" s="99">
         <v>42796</v>
       </c>
-      <c r="K49" s="107"/>
-      <c r="L49" s="109" t="s">
+      <c r="K49" s="98"/>
+      <c r="L49" s="100" t="s">
         <v>238</v>
       </c>
-      <c r="M49" s="107" t="s">
+      <c r="M49" s="98" t="s">
         <v>229</v>
       </c>
-      <c r="N49" s="107" t="s">
+      <c r="N49" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O49" s="107" t="s">
+      <c r="O49" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="P49" s="109" t="s">
+      <c r="P49" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="Q49" s="108">
+      <c r="Q49" s="99">
         <v>42797</v>
       </c>
-      <c r="R49" s="109" t="s">
+      <c r="R49" s="100" t="s">
         <v>79</v>
       </c>
       <c r="S49" s="63" t="s">
@@ -5923,60 +5951,60 @@
       <c r="T49" s="56"/>
       <c r="U49" s="56"/>
       <c r="V49" s="62"/>
-      <c r="W49" s="113"/>
+      <c r="W49" s="104"/>
       <c r="X49" s="65"/>
     </row>
-    <row r="50" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A50" s="80">
+    <row r="50" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A50" s="71">
         <v>49</v>
       </c>
-      <c r="B50" s="105" t="s">
+      <c r="B50" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="105" t="s">
+      <c r="C50" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="D50" s="119" t="s">
+      <c r="D50" s="110" t="s">
         <v>240</v>
       </c>
-      <c r="E50" s="107" t="s">
+      <c r="E50" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F50" s="107" t="s">
+      <c r="F50" s="98" t="s">
         <v>241</v>
       </c>
-      <c r="G50" s="107" t="s">
+      <c r="G50" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="108">
+      <c r="H50" s="99">
         <v>42800</v>
       </c>
-      <c r="I50" s="107" t="s">
+      <c r="I50" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="J50" s="108">
+      <c r="J50" s="99">
         <v>42800</v>
       </c>
-      <c r="K50" s="107"/>
-      <c r="L50" s="109" t="s">
+      <c r="K50" s="98"/>
+      <c r="L50" s="100" t="s">
         <v>242</v>
       </c>
-      <c r="M50" s="107" t="s">
+      <c r="M50" s="98" t="s">
         <v>229</v>
       </c>
-      <c r="N50" s="107" t="s">
+      <c r="N50" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="O50" s="107" t="s">
+      <c r="O50" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="P50" s="109" t="s">
+      <c r="P50" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="Q50" s="108">
+      <c r="Q50" s="99">
         <v>42800</v>
       </c>
-      <c r="R50" s="109" t="s">
+      <c r="R50" s="100" t="s">
         <v>79</v>
       </c>
       <c r="S50" s="63" t="s">
@@ -5985,10 +6013,10 @@
       <c r="T50" s="56"/>
       <c r="U50" s="56"/>
       <c r="V50" s="62"/>
-      <c r="W50" s="113"/>
+      <c r="W50" s="104"/>
       <c r="X50" s="65"/>
     </row>
-    <row r="51" spans="1:24" ht="16.5">
+    <row r="51" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="51"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -6013,7 +6041,7 @@
       <c r="V51" s="56"/>
       <c r="W51" s="57"/>
     </row>
-    <row r="52" spans="1:24" ht="16.5">
+    <row r="52" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A52" s="56"/>
       <c r="B52" s="56"/>
       <c r="C52" s="56"/>
@@ -6038,7 +6066,7 @@
       <c r="V52" s="56"/>
       <c r="W52" s="57"/>
     </row>
-    <row r="53" spans="1:24" ht="16.5">
+    <row r="53" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="56"/>
       <c r="B53" s="56"/>
       <c r="C53" s="56"/>
@@ -6063,7 +6091,7 @@
       <c r="V53" s="56"/>
       <c r="W53" s="57"/>
     </row>
-    <row r="54" spans="1:24" ht="16.5">
+    <row r="54" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="56"/>
       <c r="B54" s="56"/>
       <c r="C54" s="56"/>
@@ -6088,7 +6116,7 @@
       <c r="V54" s="56"/>
       <c r="W54" s="57"/>
     </row>
-    <row r="55" spans="1:24" ht="16.5">
+    <row r="55" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="56"/>
       <c r="B55" s="56"/>
       <c r="C55" s="56"/>
@@ -6113,7 +6141,7 @@
       <c r="V55" s="56"/>
       <c r="W55" s="57"/>
     </row>
-    <row r="56" spans="1:24" ht="16.5">
+    <row r="56" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="56"/>
       <c r="B56" s="56"/>
       <c r="C56" s="56"/>
@@ -6138,7 +6166,7 @@
       <c r="V56" s="56"/>
       <c r="W56" s="57"/>
     </row>
-    <row r="57" spans="1:24" ht="16.5">
+    <row r="57" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="56"/>
       <c r="B57" s="56"/>
       <c r="C57" s="56"/>
@@ -6163,7 +6191,7 @@
       <c r="V57" s="56"/>
       <c r="W57" s="57"/>
     </row>
-    <row r="58" spans="1:24" ht="16.5">
+    <row r="58" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="56"/>
       <c r="B58" s="56"/>
       <c r="C58" s="56"/>
@@ -6188,7 +6216,7 @@
       <c r="V58" s="56"/>
       <c r="W58" s="57"/>
     </row>
-    <row r="59" spans="1:24" ht="16.5">
+    <row r="59" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="56"/>
       <c r="B59" s="56"/>
       <c r="C59" s="56"/>
@@ -6213,7 +6241,7 @@
       <c r="V59" s="56"/>
       <c r="W59" s="57"/>
     </row>
-    <row r="60" spans="1:24" ht="16.5">
+    <row r="60" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="56"/>
       <c r="B60" s="56"/>
       <c r="C60" s="56"/>
@@ -6238,7 +6266,7 @@
       <c r="V60" s="56"/>
       <c r="W60" s="57"/>
     </row>
-    <row r="61" spans="1:24" ht="16.5">
+    <row r="61" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="56"/>
       <c r="B61" s="56"/>
       <c r="C61" s="56"/>
@@ -6263,7 +6291,7 @@
       <c r="V61" s="56"/>
       <c r="W61" s="57"/>
     </row>
-    <row r="62" spans="1:24" ht="16.5">
+    <row r="62" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="56"/>
       <c r="B62" s="56"/>
       <c r="C62" s="56"/>
@@ -6288,7 +6316,7 @@
       <c r="V62" s="56"/>
       <c r="W62" s="57"/>
     </row>
-    <row r="63" spans="1:24" ht="16.5">
+    <row r="63" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="56"/>
       <c r="B63" s="56"/>
       <c r="C63" s="56"/>
@@ -6313,7 +6341,7 @@
       <c r="V63" s="56"/>
       <c r="W63" s="57"/>
     </row>
-    <row r="64" spans="1:24" ht="16.5">
+    <row r="64" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="56"/>
       <c r="B64" s="56"/>
       <c r="C64" s="56"/>
@@ -6338,7 +6366,7 @@
       <c r="V64" s="56"/>
       <c r="W64" s="57"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5">
+    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="56"/>
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
@@ -6363,7 +6391,7 @@
       <c r="V65" s="56"/>
       <c r="W65" s="57"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5">
+    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="56"/>
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
@@ -6388,7 +6416,7 @@
       <c r="V66" s="56"/>
       <c r="W66" s="57"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5">
+    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="56"/>
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
@@ -6413,7 +6441,7 @@
       <c r="V67" s="56"/>
       <c r="W67" s="57"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5">
+    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="56"/>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
@@ -6438,7 +6466,7 @@
       <c r="V68" s="56"/>
       <c r="W68" s="57"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5">
+    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
@@ -6463,7 +6491,7 @@
       <c r="V69" s="56"/>
       <c r="W69" s="57"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5">
+    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A70" s="56"/>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
@@ -6488,7 +6516,7 @@
       <c r="V70" s="56"/>
       <c r="W70" s="57"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5">
+    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="56"/>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
@@ -6513,7 +6541,7 @@
       <c r="V71" s="56"/>
       <c r="W71" s="57"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5">
+    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A72" s="56"/>
       <c r="B72" s="56"/>
       <c r="C72" s="56"/>
@@ -6538,7 +6566,7 @@
       <c r="V72" s="56"/>
       <c r="W72" s="57"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5">
+    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A73" s="56"/>
       <c r="B73" s="56"/>
       <c r="C73" s="56"/>
@@ -6563,7 +6591,7 @@
       <c r="V73" s="56"/>
       <c r="W73" s="57"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5">
+    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A74" s="56"/>
       <c r="B74" s="56"/>
       <c r="C74" s="56"/>
@@ -6588,7 +6616,7 @@
       <c r="V74" s="56"/>
       <c r="W74" s="57"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5">
+    <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A75" s="56"/>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
@@ -6613,7 +6641,7 @@
       <c r="V75" s="56"/>
       <c r="W75" s="57"/>
     </row>
-    <row r="76" spans="1:23" ht="16.5">
+    <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A76" s="56"/>
       <c r="B76" s="56"/>
       <c r="C76" s="56"/>
@@ -6638,7 +6666,7 @@
       <c r="V76" s="56"/>
       <c r="W76" s="57"/>
     </row>
-    <row r="77" spans="1:23" ht="16.5">
+    <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A77" s="56"/>
       <c r="B77" s="56"/>
       <c r="C77" s="56"/>
@@ -6663,7 +6691,7 @@
       <c r="V77" s="56"/>
       <c r="W77" s="57"/>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A78" s="56"/>
       <c r="B78" s="56"/>
       <c r="C78" s="56"/>
@@ -6688,7 +6716,7 @@
       <c r="V78" s="56"/>
       <c r="W78" s="57"/>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A79" s="56"/>
       <c r="B79" s="56"/>
       <c r="C79" s="56"/>
@@ -6713,7 +6741,7 @@
       <c r="V79" s="56"/>
       <c r="W79" s="57"/>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A80" s="56"/>
       <c r="B80" s="56"/>
       <c r="C80" s="56"/>
@@ -6738,7 +6766,7 @@
       <c r="V80" s="56"/>
       <c r="W80" s="57"/>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A81" s="56"/>
       <c r="B81" s="56"/>
       <c r="C81" s="56"/>
@@ -6763,7 +6791,7 @@
       <c r="V81" s="56"/>
       <c r="W81" s="57"/>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A82" s="56"/>
       <c r="B82" s="56"/>
       <c r="C82" s="56"/>
@@ -6788,7 +6816,7 @@
       <c r="V82" s="56"/>
       <c r="W82" s="57"/>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A83" s="56"/>
       <c r="B83" s="56"/>
       <c r="C83" s="56"/>
@@ -6813,7 +6841,7 @@
       <c r="V83" s="56"/>
       <c r="W83" s="57"/>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A84" s="56"/>
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
@@ -6838,7 +6866,7 @@
       <c r="V84" s="56"/>
       <c r="W84" s="57"/>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A85" s="56"/>
       <c r="B85" s="56"/>
       <c r="C85" s="56"/>
@@ -6863,7 +6891,7 @@
       <c r="V85" s="56"/>
       <c r="W85" s="57"/>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A86" s="56"/>
       <c r="B86" s="56"/>
       <c r="C86" s="56"/>
@@ -6888,7 +6916,7 @@
       <c r="V86" s="56"/>
       <c r="W86" s="57"/>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A87" s="56"/>
       <c r="B87" s="56"/>
       <c r="C87" s="56"/>
@@ -6913,7 +6941,7 @@
       <c r="V87" s="56"/>
       <c r="W87" s="57"/>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A88" s="56"/>
       <c r="B88" s="56"/>
       <c r="C88" s="56"/>
@@ -6938,7 +6966,7 @@
       <c r="V88" s="56"/>
       <c r="W88" s="57"/>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A89" s="56"/>
       <c r="B89" s="56"/>
       <c r="C89" s="56"/>
@@ -6963,7 +6991,7 @@
       <c r="V89" s="56"/>
       <c r="W89" s="57"/>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A90" s="56"/>
       <c r="B90" s="56"/>
       <c r="C90" s="56"/>
@@ -6988,7 +7016,7 @@
       <c r="V90" s="56"/>
       <c r="W90" s="57"/>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A91" s="56"/>
       <c r="B91" s="56"/>
       <c r="C91" s="56"/>
@@ -7013,7 +7041,7 @@
       <c r="V91" s="56"/>
       <c r="W91" s="57"/>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A92" s="56"/>
       <c r="B92" s="56"/>
       <c r="C92" s="56"/>
@@ -7038,7 +7066,7 @@
       <c r="V92" s="56"/>
       <c r="W92" s="57"/>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A93" s="56"/>
       <c r="B93" s="56"/>
       <c r="C93" s="56"/>
@@ -7063,7 +7091,7 @@
       <c r="V93" s="56"/>
       <c r="W93" s="57"/>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A94" s="56"/>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
@@ -7088,7 +7116,7 @@
       <c r="V94" s="56"/>
       <c r="W94" s="57"/>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A95" s="56"/>
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
@@ -7113,7 +7141,7 @@
       <c r="V95" s="56"/>
       <c r="W95" s="57"/>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A96" s="56"/>
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
@@ -7138,7 +7166,7 @@
       <c r="V96" s="56"/>
       <c r="W96" s="57"/>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A97" s="56"/>
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
@@ -7163,7 +7191,7 @@
       <c r="V97" s="56"/>
       <c r="W97" s="57"/>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A98" s="56"/>
       <c r="B98" s="56"/>
       <c r="C98" s="56"/>
@@ -7188,7 +7216,7 @@
       <c r="V98" s="56"/>
       <c r="W98" s="57"/>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A99" s="56"/>
       <c r="B99" s="56"/>
       <c r="C99" s="56"/>
@@ -7213,7 +7241,7 @@
       <c r="V99" s="56"/>
       <c r="W99" s="57"/>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A100" s="56"/>
       <c r="B100" s="56"/>
       <c r="C100" s="56"/>
@@ -7238,7 +7266,7 @@
       <c r="V100" s="56"/>
       <c r="W100" s="57"/>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A101" s="56"/>
       <c r="B101" s="56"/>
       <c r="C101" s="56"/>
@@ -7263,7 +7291,7 @@
       <c r="V101" s="56"/>
       <c r="W101" s="57"/>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A102" s="56"/>
       <c r="B102" s="56"/>
       <c r="C102" s="56"/>
@@ -7288,7 +7316,7 @@
       <c r="V102" s="56"/>
       <c r="W102" s="57"/>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A103" s="56"/>
       <c r="B103" s="56"/>
       <c r="C103" s="56"/>
@@ -7313,7 +7341,7 @@
       <c r="V103" s="56"/>
       <c r="W103" s="57"/>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A104" s="56"/>
       <c r="B104" s="56"/>
       <c r="C104" s="56"/>
@@ -7338,7 +7366,7 @@
       <c r="V104" s="56"/>
       <c r="W104" s="57"/>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A105" s="56"/>
       <c r="B105" s="56"/>
       <c r="C105" s="56"/>
@@ -7363,7 +7391,7 @@
       <c r="V105" s="56"/>
       <c r="W105" s="57"/>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A106" s="56"/>
       <c r="B106" s="56"/>
       <c r="C106" s="56"/>
@@ -7388,7 +7416,7 @@
       <c r="V106" s="56"/>
       <c r="W106" s="57"/>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A107" s="56"/>
       <c r="B107" s="56"/>
       <c r="C107" s="56"/>
@@ -7413,7 +7441,7 @@
       <c r="V107" s="56"/>
       <c r="W107" s="57"/>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A108" s="56"/>
       <c r="B108" s="56"/>
       <c r="C108" s="56"/>
@@ -7438,7 +7466,7 @@
       <c r="V108" s="56"/>
       <c r="W108" s="57"/>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A109" s="56"/>
       <c r="B109" s="56"/>
       <c r="C109" s="56"/>
@@ -7463,7 +7491,7 @@
       <c r="V109" s="56"/>
       <c r="W109" s="57"/>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A110" s="56"/>
       <c r="B110" s="56"/>
       <c r="C110" s="56"/>
@@ -7488,7 +7516,7 @@
       <c r="V110" s="56"/>
       <c r="W110" s="57"/>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A111" s="56"/>
       <c r="B111" s="56"/>
       <c r="C111" s="56"/>
@@ -7513,7 +7541,7 @@
       <c r="V111" s="56"/>
       <c r="W111" s="57"/>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A112" s="56"/>
       <c r="B112" s="56"/>
       <c r="C112" s="56"/>
@@ -7538,7 +7566,7 @@
       <c r="V112" s="56"/>
       <c r="W112" s="57"/>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A113" s="56"/>
       <c r="B113" s="56"/>
       <c r="C113" s="56"/>
@@ -7563,7 +7591,7 @@
       <c r="V113" s="56"/>
       <c r="W113" s="57"/>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A114" s="56"/>
       <c r="B114" s="56"/>
       <c r="C114" s="56"/>
@@ -7588,7 +7616,7 @@
       <c r="V114" s="56"/>
       <c r="W114" s="57"/>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A115" s="56"/>
       <c r="B115" s="56"/>
       <c r="C115" s="56"/>
@@ -7613,7 +7641,7 @@
       <c r="V115" s="56"/>
       <c r="W115" s="57"/>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A116" s="56"/>
       <c r="B116" s="56"/>
       <c r="C116" s="56"/>
@@ -7638,7 +7666,7 @@
       <c r="V116" s="56"/>
       <c r="W116" s="57"/>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A117" s="56"/>
       <c r="B117" s="56"/>
       <c r="C117" s="56"/>
@@ -7663,7 +7691,7 @@
       <c r="V117" s="56"/>
       <c r="W117" s="57"/>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A118" s="56"/>
       <c r="B118" s="56"/>
       <c r="C118" s="56"/>
@@ -7688,7 +7716,7 @@
       <c r="V118" s="56"/>
       <c r="W118" s="57"/>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A119" s="56"/>
       <c r="B119" s="56"/>
       <c r="C119" s="56"/>
@@ -7713,7 +7741,7 @@
       <c r="V119" s="56"/>
       <c r="W119" s="57"/>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A120" s="56"/>
       <c r="B120" s="56"/>
       <c r="C120" s="56"/>
@@ -7738,7 +7766,7 @@
       <c r="V120" s="56"/>
       <c r="W120" s="57"/>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A121" s="56"/>
       <c r="B121" s="56"/>
       <c r="C121" s="56"/>
@@ -7763,7 +7791,7 @@
       <c r="V121" s="56"/>
       <c r="W121" s="57"/>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A122" s="56"/>
       <c r="B122" s="56"/>
       <c r="C122" s="56"/>
@@ -7788,7 +7816,7 @@
       <c r="V122" s="56"/>
       <c r="W122" s="57"/>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A123" s="56"/>
       <c r="B123" s="56"/>
       <c r="C123" s="56"/>
@@ -7813,7 +7841,7 @@
       <c r="V123" s="56"/>
       <c r="W123" s="57"/>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A124" s="56"/>
       <c r="B124" s="56"/>
       <c r="C124" s="56"/>
@@ -7838,7 +7866,7 @@
       <c r="V124" s="56"/>
       <c r="W124" s="57"/>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A125" s="56"/>
       <c r="B125" s="56"/>
       <c r="C125" s="56"/>
@@ -7863,7 +7891,7 @@
       <c r="V125" s="56"/>
       <c r="W125" s="57"/>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A126" s="56"/>
       <c r="B126" s="56"/>
       <c r="C126" s="56"/>
@@ -7888,7 +7916,7 @@
       <c r="V126" s="56"/>
       <c r="W126" s="57"/>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A127" s="56"/>
       <c r="B127" s="56"/>
       <c r="C127" s="56"/>
@@ -7913,7 +7941,7 @@
       <c r="V127" s="56"/>
       <c r="W127" s="57"/>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A128" s="56"/>
       <c r="B128" s="56"/>
       <c r="C128" s="56"/>
@@ -7938,7 +7966,7 @@
       <c r="V128" s="56"/>
       <c r="W128" s="57"/>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A129" s="56"/>
       <c r="B129" s="56"/>
       <c r="C129" s="56"/>
@@ -7963,7 +7991,7 @@
       <c r="V129" s="56"/>
       <c r="W129" s="57"/>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A130" s="56"/>
       <c r="B130" s="56"/>
       <c r="C130" s="56"/>
@@ -7988,7 +8016,7 @@
       <c r="V130" s="56"/>
       <c r="W130" s="57"/>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A131" s="56"/>
       <c r="B131" s="56"/>
       <c r="C131" s="56"/>
@@ -8013,7 +8041,7 @@
       <c r="V131" s="56"/>
       <c r="W131" s="57"/>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A132" s="56"/>
       <c r="B132" s="56"/>
       <c r="C132" s="56"/>
@@ -8038,7 +8066,7 @@
       <c r="V132" s="56"/>
       <c r="W132" s="57"/>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A133" s="56"/>
       <c r="B133" s="56"/>
       <c r="C133" s="56"/>
@@ -8063,7 +8091,7 @@
       <c r="V133" s="56"/>
       <c r="W133" s="57"/>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A134" s="56"/>
       <c r="B134" s="56"/>
       <c r="C134" s="56"/>
@@ -8084,7 +8112,7 @@
       <c r="R134" s="57"/>
       <c r="W134" s="57"/>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A135" s="56"/>
       <c r="B135" s="56"/>
       <c r="C135" s="56"/>
@@ -8105,7 +8133,7 @@
       <c r="R135" s="57"/>
       <c r="W135" s="57"/>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A136" s="56"/>
       <c r="B136" s="56"/>
       <c r="C136" s="56"/>
@@ -8126,7 +8154,7 @@
       <c r="R136" s="57"/>
       <c r="W136" s="57"/>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A137" s="56"/>
       <c r="B137" s="56"/>
       <c r="C137" s="56"/>
@@ -8147,7 +8175,7 @@
       <c r="R137" s="57"/>
       <c r="W137" s="57"/>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A138" s="56"/>
       <c r="B138" s="56"/>
       <c r="C138" s="56"/>
@@ -8168,7 +8196,7 @@
       <c r="R138" s="57"/>
       <c r="W138" s="57"/>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A139" s="56"/>
       <c r="B139" s="56"/>
       <c r="C139" s="56"/>
@@ -8189,7 +8217,7 @@
       <c r="R139" s="57"/>
       <c r="W139" s="57"/>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A140" s="56"/>
       <c r="B140" s="56"/>
       <c r="C140" s="56"/>
@@ -8210,7 +8238,7 @@
       <c r="R140" s="57"/>
       <c r="W140" s="57"/>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A141" s="56"/>
       <c r="B141" s="56"/>
       <c r="C141" s="56"/>
@@ -8231,7 +8259,7 @@
       <c r="R141" s="57"/>
       <c r="W141" s="57"/>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A142" s="56"/>
       <c r="B142" s="56"/>
       <c r="C142" s="56"/>
@@ -8252,7 +8280,7 @@
       <c r="R142" s="57"/>
       <c r="W142" s="57"/>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A143" s="56"/>
       <c r="B143" s="56"/>
       <c r="C143" s="56"/>
@@ -8273,7 +8301,7 @@
       <c r="R143" s="57"/>
       <c r="W143" s="57"/>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A144" s="56"/>
       <c r="B144" s="56"/>
       <c r="C144" s="56"/>
@@ -8294,7 +8322,7 @@
       <c r="R144" s="57"/>
       <c r="W144" s="57"/>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A145" s="56"/>
       <c r="B145" s="56"/>
       <c r="C145" s="56"/>
@@ -8315,7 +8343,7 @@
       <c r="R145" s="57"/>
       <c r="W145" s="57"/>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A146" s="56"/>
       <c r="B146" s="56"/>
       <c r="C146" s="56"/>
@@ -8336,7 +8364,7 @@
       <c r="R146" s="57"/>
       <c r="W146" s="57"/>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A147" s="56"/>
       <c r="B147" s="56"/>
       <c r="C147" s="56"/>
@@ -8357,7 +8385,7 @@
       <c r="R147" s="57"/>
       <c r="W147" s="57"/>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A148" s="56"/>
       <c r="B148" s="56"/>
       <c r="C148" s="56"/>
@@ -8378,7 +8406,7 @@
       <c r="R148" s="57"/>
       <c r="W148" s="57"/>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A149" s="56"/>
       <c r="B149" s="56"/>
       <c r="C149" s="56"/>
@@ -8399,7 +8427,7 @@
       <c r="R149" s="57"/>
       <c r="W149" s="57"/>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A150" s="56"/>
       <c r="B150" s="56"/>
       <c r="C150" s="56"/>
@@ -8420,7 +8448,7 @@
       <c r="R150" s="57"/>
       <c r="W150" s="57"/>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A151" s="56"/>
       <c r="B151" s="56"/>
       <c r="C151" s="56"/>
@@ -8441,7 +8469,7 @@
       <c r="R151" s="57"/>
       <c r="W151" s="57"/>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A152" s="56"/>
       <c r="B152" s="56"/>
       <c r="C152" s="56"/>
@@ -8462,7 +8490,7 @@
       <c r="R152" s="57"/>
       <c r="W152" s="57"/>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A153" s="56"/>
       <c r="B153" s="56"/>
       <c r="C153" s="56"/>
@@ -8483,7 +8511,7 @@
       <c r="R153" s="57"/>
       <c r="W153" s="57"/>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A154" s="56"/>
       <c r="B154" s="56"/>
       <c r="C154" s="56"/>
@@ -8504,7 +8532,7 @@
       <c r="R154" s="57"/>
       <c r="W154" s="57"/>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A155" s="56"/>
       <c r="B155" s="56"/>
       <c r="C155" s="56"/>
@@ -8525,7 +8553,7 @@
       <c r="R155" s="57"/>
       <c r="W155" s="57"/>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A156" s="56"/>
       <c r="B156" s="56"/>
       <c r="C156" s="56"/>
@@ -8546,7 +8574,7 @@
       <c r="R156" s="57"/>
       <c r="W156" s="57"/>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A157" s="56"/>
       <c r="B157" s="56"/>
       <c r="C157" s="56"/>
@@ -8567,7 +8595,7 @@
       <c r="R157" s="57"/>
       <c r="W157" s="57"/>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A158" s="56"/>
       <c r="B158" s="56"/>
       <c r="C158" s="56"/>
@@ -8588,7 +8616,7 @@
       <c r="R158" s="57"/>
       <c r="W158" s="57"/>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A159" s="56"/>
       <c r="B159" s="56"/>
       <c r="C159" s="56"/>
@@ -8609,7 +8637,7 @@
       <c r="R159" s="57"/>
       <c r="W159" s="57"/>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A160" s="56"/>
       <c r="B160" s="56"/>
       <c r="C160" s="56"/>
@@ -8630,7 +8658,7 @@
       <c r="R160" s="57"/>
       <c r="W160" s="57"/>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A161" s="56"/>
       <c r="B161" s="56"/>
       <c r="C161" s="56"/>
@@ -8651,7 +8679,7 @@
       <c r="R161" s="57"/>
       <c r="W161" s="57"/>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A162" s="56"/>
       <c r="B162" s="56"/>
       <c r="C162" s="56"/>
@@ -8672,7 +8700,7 @@
       <c r="R162" s="57"/>
       <c r="W162" s="57"/>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A163" s="56"/>
       <c r="B163" s="56"/>
       <c r="C163" s="56"/>
@@ -8693,7 +8721,7 @@
       <c r="R163" s="57"/>
       <c r="W163" s="57"/>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A164" s="56"/>
       <c r="B164" s="56"/>
       <c r="C164" s="56"/>
@@ -8714,7 +8742,7 @@
       <c r="R164" s="57"/>
       <c r="W164" s="57"/>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A165" s="56"/>
       <c r="B165" s="56"/>
       <c r="C165" s="56"/>
@@ -8735,7 +8763,7 @@
       <c r="R165" s="57"/>
       <c r="W165" s="57"/>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A166" s="56"/>
       <c r="B166" s="56"/>
       <c r="C166" s="56"/>
@@ -8756,7 +8784,7 @@
       <c r="R166" s="57"/>
       <c r="W166" s="57"/>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A167" s="56"/>
       <c r="B167" s="56"/>
       <c r="C167" s="56"/>
@@ -8777,7 +8805,7 @@
       <c r="R167" s="57"/>
       <c r="W167" s="57"/>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A168" s="56"/>
       <c r="B168" s="56"/>
       <c r="C168" s="56"/>
@@ -8877,27 +8905,27 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="7" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="7" width="7.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="44.375" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="54.875" customWidth="1"/>
+    <col min="13" max="13" width="54.83203125" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.125" customWidth="1"/>
-    <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="31.125" customWidth="1"/>
-    <col min="18" max="18" width="4.625" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -8953,7 +8981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1">
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -8973,7 +9001,7 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1">
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -8993,7 +9021,7 @@
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -9027,35 +9055,35 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="A1" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.25">
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -9090,9 +9118,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -9103,9 +9131,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="151"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -9116,9 +9144,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="150"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -9129,9 +9157,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="152"/>
+      <c r="B6" s="152"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -9142,9 +9170,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="75"/>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="152"/>
+      <c r="B7" s="152"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -9155,9 +9183,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="152"/>
+      <c r="B8" s="152"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -9168,9 +9196,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="75"/>
-      <c r="B9" s="75"/>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="152"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -9181,9 +9209,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="151"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -9194,7 +9222,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -9228,54 +9256,54 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="77"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="79"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="154"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="155"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="156"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -9316,7 +9344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -9331,7 +9359,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -9346,7 +9374,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -9361,7 +9389,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -9376,7 +9404,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -9391,7 +9419,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -9406,7 +9434,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -9421,7 +9449,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -9436,7 +9464,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -9451,7 +9479,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -9466,7 +9494,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -9481,7 +9509,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -9496,7 +9524,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -9539,57 +9567,57 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A4" sqref="A4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="77"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="79"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="154"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="155"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="156"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -9630,22 +9658,46 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.15">
+      <c r="A4" s="157">
+        <v>1</v>
+      </c>
+      <c r="B4" s="157" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="157" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="158" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="157" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="157" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" s="157" t="s">
+        <v>249</v>
+      </c>
+      <c r="J4" s="157" t="s">
+        <v>250</v>
+      </c>
+      <c r="K4" s="157" t="s">
+        <v>250</v>
+      </c>
+      <c r="L4" s="157" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="157"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -9660,7 +9712,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -9675,7 +9727,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -9690,7 +9742,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -9705,7 +9757,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -9720,7 +9772,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -9735,7 +9787,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -9750,7 +9802,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -9765,7 +9817,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -9780,7 +9832,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -9795,7 +9847,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -9810,7 +9862,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -9852,58 +9904,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="77"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="79"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="154"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="155"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="156"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -9944,22 +9996,46 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.15">
+      <c r="A4" s="157">
+        <v>1</v>
+      </c>
+      <c r="B4" s="157" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="157" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="158" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="157" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="157" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" s="157" t="s">
+        <v>249</v>
+      </c>
+      <c r="J4" s="157" t="s">
+        <v>250</v>
+      </c>
+      <c r="K4" s="157" t="s">
+        <v>250</v>
+      </c>
+      <c r="L4" s="157" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="157"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -9974,7 +10050,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -9989,7 +10065,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -10004,7 +10080,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -10019,7 +10095,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -10034,7 +10110,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -10049,7 +10125,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -10064,7 +10140,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -10079,7 +10155,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -10094,7 +10170,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -10109,7 +10185,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -10124,7 +10200,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -10170,56 +10246,56 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="77"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="79"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="154"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="155"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="156"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -10260,7 +10336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -10275,7 +10351,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -10290,7 +10366,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -10305,7 +10381,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -10320,7 +10396,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -10335,7 +10411,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -10350,7 +10426,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -10365,7 +10441,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -10380,7 +10456,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -10395,7 +10471,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -10410,7 +10486,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -10425,7 +10501,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -10440,7 +10516,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -10486,18 +10562,18 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -10523,7 +10599,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10533,7 +10609,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -10543,7 +10619,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -10553,7 +10629,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -10563,7 +10639,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -10573,7 +10649,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -10583,7 +10659,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -10593,7 +10669,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -10603,7 +10679,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -10613,7 +10689,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -10623,7 +10699,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -10633,7 +10709,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -10643,7 +10719,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -10653,7 +10729,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -10663,7 +10739,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -10673,7 +10749,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -10683,7 +10759,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -10693,7 +10769,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-9600" yWindow="-21160" windowWidth="38400" windowHeight="21160" activeTab="5"/>
+    <workbookView xWindow="-9600" yWindow="-21160" windowWidth="38400" windowHeight="21160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="253">
   <si>
     <t>No</t>
   </si>
@@ -964,6 +964,9 @@
   </si>
   <si>
     <t>田东兴</t>
+  </si>
+  <si>
+    <t>websocket长链接支持，测试环境之前让虚空帮忙配置过，包含wss支持，长链接维持时间，并发数等参数</t>
   </si>
 </sst>
 </file>
@@ -1962,6 +1965,12 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1988,12 +1997,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -9069,19 +9072,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -9119,8 +9122,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="152"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -9132,8 +9135,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="151"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -9145,8 +9148,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="150"/>
-      <c r="B5" s="150"/>
+      <c r="A5" s="152"/>
+      <c r="B5" s="152"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -9158,8 +9161,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="152"/>
-      <c r="B6" s="152"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="154"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -9171,8 +9174,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="152"/>
-      <c r="B7" s="152"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -9184,8 +9187,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="152"/>
-      <c r="B8" s="152"/>
+      <c r="A8" s="154"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -9197,8 +9200,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="152"/>
-      <c r="B9" s="152"/>
+      <c r="A9" s="154"/>
+      <c r="B9" s="154"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -9210,8 +9213,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="151"/>
-      <c r="B10" s="151"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -9272,36 +9275,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="156"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="156"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="158"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -9566,8 +9569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -9586,36 +9589,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="156"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="156"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="158"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -9659,22 +9662,22 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.15">
-      <c r="A4" s="157">
+      <c r="A4" s="148">
         <v>1</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="148" t="s">
         <v>244</v>
       </c>
-      <c r="D4" s="158" t="s">
+      <c r="D4" s="149" t="s">
         <v>233</v>
       </c>
-      <c r="E4" s="157" t="s">
+      <c r="E4" s="148" t="s">
         <v>245</v>
       </c>
-      <c r="F4" s="157" t="s">
+      <c r="F4" s="148" t="s">
         <v>246</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -9683,33 +9686,53 @@
       <c r="H4" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="I4" s="157" t="s">
+      <c r="I4" s="148" t="s">
         <v>249</v>
       </c>
-      <c r="J4" s="157" t="s">
+      <c r="J4" s="148" t="s">
         <v>250</v>
       </c>
-      <c r="K4" s="157" t="s">
+      <c r="K4" s="148" t="s">
         <v>250</v>
       </c>
-      <c r="L4" s="157" t="s">
+      <c r="L4" s="148" t="s">
         <v>251</v>
       </c>
-      <c r="M4" s="157"/>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
+      <c r="M4" s="148"/>
+    </row>
+    <row r="5" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="148" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="149" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>252</v>
+      </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
+      <c r="G5" s="10" t="s">
+        <v>252</v>
+      </c>
       <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="I5" s="148" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" s="148" t="s">
+        <v>250</v>
+      </c>
+      <c r="K5" s="148" t="s">
+        <v>250</v>
+      </c>
+      <c r="L5" s="148" t="s">
+        <v>251</v>
+      </c>
       <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
@@ -9904,8 +9927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -9924,36 +9947,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="156"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="156"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="158"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -9997,22 +10020,22 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.15">
-      <c r="A4" s="157">
+      <c r="A4" s="148">
         <v>1</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="148" t="s">
         <v>244</v>
       </c>
-      <c r="D4" s="158" t="s">
+      <c r="D4" s="149" t="s">
         <v>233</v>
       </c>
-      <c r="E4" s="157" t="s">
+      <c r="E4" s="148" t="s">
         <v>245</v>
       </c>
-      <c r="F4" s="157" t="s">
+      <c r="F4" s="148" t="s">
         <v>246</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -10021,33 +10044,53 @@
       <c r="H4" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="I4" s="157" t="s">
+      <c r="I4" s="148" t="s">
         <v>249</v>
       </c>
-      <c r="J4" s="157" t="s">
+      <c r="J4" s="148" t="s">
         <v>250</v>
       </c>
-      <c r="K4" s="157" t="s">
+      <c r="K4" s="148" t="s">
         <v>250</v>
       </c>
-      <c r="L4" s="157" t="s">
+      <c r="L4" s="148" t="s">
         <v>251</v>
       </c>
-      <c r="M4" s="157"/>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
+      <c r="M4" s="148"/>
+    </row>
+    <row r="5" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="148" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="149" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>252</v>
+      </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
+      <c r="G5" s="10" t="s">
+        <v>252</v>
+      </c>
       <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="I5" s="148" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" s="148" t="s">
+        <v>250</v>
+      </c>
+      <c r="K5" s="148" t="s">
+        <v>250</v>
+      </c>
+      <c r="L5" s="148" t="s">
+        <v>251</v>
+      </c>
       <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
@@ -10264,36 +10307,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="156"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="156"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="158"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-9600" yWindow="-21160" windowWidth="38400" windowHeight="21160" activeTab="4"/>
+    <workbookView xWindow="-9600" yWindow="-21160" windowWidth="38400" windowHeight="21160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="254">
   <si>
     <t>No</t>
   </si>
@@ -967,6 +967,9 @@
   </si>
   <si>
     <t>websocket长链接支持，测试环境之前让虚空帮忙配置过，包含wss支持，长链接维持时间，并发数等参数</t>
+  </si>
+  <si>
+    <t>新增</t>
   </si>
 </sst>
 </file>
@@ -9569,8 +9572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -9716,7 +9719,9 @@
       <c r="E5" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>253</v>
+      </c>
       <c r="G5" s="10" t="s">
         <v>252</v>
       </c>
@@ -9927,8 +9932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -10074,7 +10079,9 @@
       <c r="E5" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>253</v>
+      </c>
       <c r="G5" s="10" t="s">
         <v>252</v>
       </c>
